--- a/cts-report-data/cts-report-data.xlsx
+++ b/cts-report-data/cts-report-data.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_9" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_10" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_11" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_12" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_13" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_14" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="data_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="data_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="data_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="data_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="data_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="data_10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="data_11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="data_12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="data_13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="data_14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="data_15" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.5599975585938</v>
+        <v>504.8200073242188</v>
       </c>
       <c r="C2" t="n">
-        <v>32292400</v>
+        <v>37690200</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01122752403073024</v>
+        <v>0.003538483518330082</v>
       </c>
       <c r="E2" t="n">
-        <v>5.3800048828125</v>
+        <v>1.779998779296875</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02625062176983564</v>
+        <v>0.01329190974070638</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07530541195770617</v>
+        <v>0.08115764158766849</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0300478736006951</v>
+        <v>0.04958202610068395</v>
       </c>
     </row>
     <row r="3">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233.1900024414062</v>
+        <v>239.3899993896484</v>
       </c>
       <c r="C3" t="n">
-        <v>60477352</v>
+        <v>64401200</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00852002945377861</v>
+        <v>0.003310952497587394</v>
       </c>
       <c r="E3" t="n">
-        <v>1.970001220703125</v>
+        <v>0.7899932861328125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01852569698095972</v>
+        <v>0.007602623627010154</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06398215194793468</v>
+        <v>0.06842393134456391</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04888721229864013</v>
+        <v>0.06161493812442781</v>
       </c>
     </row>
     <row r="4">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.38999938964844</v>
+        <v>99.80999755859375</v>
       </c>
       <c r="C4" t="n">
-        <v>91049696</v>
+        <v>62731000</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01057448837481179</v>
+        <v>0.000802107680412556</v>
       </c>
       <c r="E4" t="n">
-        <v>1.040000915527344</v>
+        <v>0.07999420166015625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02656202239521692</v>
+        <v>-0.008015259706705918</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07314615844361885</v>
+        <v>0.05520483560378087</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07797565195283793</v>
+        <v>0.07083458438793924</v>
       </c>
     </row>
     <row r="5">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1334.010009765625</v>
+        <v>1363.619995117188</v>
       </c>
       <c r="C5" t="n">
-        <v>180964992</v>
+        <v>232120096</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.004856331625619048</v>
+        <v>0.002249027159153982</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.510009765625</v>
+        <v>3.0599365234375</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.003290840860488589</v>
+        <v>0.007252764467997968</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03356798597391521</v>
+        <v>0.01908891728640135</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04781075766296584</v>
+        <v>0.03839778350203992</v>
       </c>
     </row>
     <row r="6">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1272.719970703125</v>
+        <v>1307.800048828125</v>
       </c>
       <c r="C6" t="n">
-        <v>739384000</v>
+        <v>846430144</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.002633052369187538</v>
+        <v>0.003714686587255045</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.3599853515625</v>
+        <v>4.840087890625</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003355034594837851</v>
+        <v>0.008449341195564697</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03429664452420565</v>
+        <v>0.03268848325728908</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04368594574281789</v>
+        <v>0.04327120796587632</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2117.010009765625</v>
+        <v>2179.969970703125</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>825458880</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.003618538146106687</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7.85986328125</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.00902302423397864</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.001587194867466403</v>
+        <v>0.02888111386102854</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01769002083085148</v>
+        <v>0.04606022718606023</v>
       </c>
     </row>
     <row r="8">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44546.078125</v>
+        <v>43536.73828125</v>
       </c>
       <c r="C8" t="n">
-        <v>474573504</v>
+        <v>55204688</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.003698194480822647</v>
+        <v>0.002385672152741325</v>
       </c>
       <c r="E8" t="n">
-        <v>-165.3515625</v>
+        <v>103.6171875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001698644907362426</v>
+        <v>0.002497172601623718</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0237563000951613</v>
+        <v>-0.0309024212220193</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02596135532413944</v>
+        <v>-0.03155748938688186</v>
       </c>
     </row>
     <row r="9">
@@ -696,25 +696,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.66000366210938</v>
+        <v>72.52999877929688</v>
       </c>
       <c r="C9" t="n">
-        <v>21057</v>
+        <v>15554</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0009896746995892158</v>
+        <v>0.008902481500654869</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06999969482421875</v>
+        <v>0.6399993896484375</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01004810426939427</v>
+        <v>0.02481725427626887</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06764787052877122</v>
+        <v>-0.001240920568040147</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01684124511366782</v>
+        <v>0.04260301102848826</v>
       </c>
     </row>
     <row r="10">
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96346.2734375</v>
+        <v>86103.359375</v>
       </c>
       <c r="C10" t="n">
-        <v>22477418496</v>
+        <v>67657641984</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001503921939962627</v>
+        <v>0.02417612971350702</v>
       </c>
       <c r="E10" t="n">
-        <v>144.6796875</v>
+        <v>2032.5078125</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.002192449873393682</v>
+        <v>-0.118167300745924</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07635933635536468</v>
+        <v>-0.1216553869214235</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01463114451348704</v>
+        <v>-0.07521302068825349</v>
       </c>
     </row>
     <row r="11">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2898.51708984375</v>
+        <v>2889.1220703125</v>
       </c>
       <c r="C11" t="n">
-        <v>3157059</v>
+        <v>10486445</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005929755800141656</v>
+        <v>-0.008357426414776881</v>
       </c>
       <c r="E11" t="n">
-        <v>17.086181640625</v>
+        <v>-24.34912109375</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01078053281218861</v>
+        <v>-0.01611927620475646</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05463369183090155</v>
+        <v>0.01028490826818403</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09306407185921275</v>
+        <v>0.09676779582357178</v>
       </c>
     </row>
   </sheetData>
@@ -826,16 +826,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53026.288</v>
+        <v>41955.432</v>
       </c>
       <c r="C2" t="n">
-        <v>1195.509940224</v>
+        <v>1385.877602304</v>
       </c>
       <c r="D2" t="n">
-        <v>15689.6</v>
+        <v>22730.4</v>
       </c>
       <c r="E2" t="n">
-        <v>432.35885056</v>
+        <v>551.662125056</v>
       </c>
     </row>
     <row r="3">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-55965.696</v>
+        <v>-59405.728</v>
       </c>
       <c r="C3" t="n">
-        <v>-1795.756130304</v>
+        <v>-2024.897642496</v>
       </c>
       <c r="D3" t="n">
-        <v>-8400.101000000001</v>
+        <v>-13617.856</v>
       </c>
       <c r="E3" t="n">
-        <v>-231.554531328</v>
+        <v>-350.15901184</v>
       </c>
     </row>
     <row r="4">
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2939.408000000003</v>
+        <v>-17450.296</v>
       </c>
       <c r="C4" t="n">
-        <v>-600.2461900799999</v>
+        <v>-639.0200401919999</v>
       </c>
       <c r="D4" t="n">
-        <v>7289.499</v>
+        <v>9112.544000000002</v>
       </c>
       <c r="E4" t="n">
-        <v>200.804319232</v>
+        <v>201.503113216</v>
       </c>
     </row>
   </sheetData>
@@ -949,28 +949,28 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45705</v>
+        <v>45715</v>
       </c>
       <c r="C2" t="n">
-        <v>2468</v>
+        <v>6383</v>
       </c>
       <c r="D2" t="n">
-        <v>2063</v>
+        <v>3509</v>
       </c>
       <c r="E2" t="n">
-        <v>-330.643963904</v>
+        <v>-866.99114496</v>
       </c>
       <c r="F2" t="n">
-        <v>276.385103872</v>
+        <v>476.621012992</v>
       </c>
       <c r="G2" t="n">
-        <v>-405</v>
+        <v>-2874</v>
       </c>
       <c r="H2" t="n">
-        <v>-54.25886003199997</v>
+        <v>-390.3701319680001</v>
       </c>
       <c r="I2" t="n">
-        <v>1935</v>
+        <v>-9715</v>
       </c>
     </row>
     <row r="3">
@@ -980,28 +980,28 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45705</v>
+        <v>45715</v>
       </c>
       <c r="C3" t="n">
-        <v>3195</v>
+        <v>4031</v>
       </c>
       <c r="D3" t="n">
-        <v>2059</v>
+        <v>4292</v>
       </c>
       <c r="E3" t="n">
-        <v>-427.89552128</v>
+        <v>-546.801844224</v>
       </c>
       <c r="F3" t="n">
-        <v>275.924123648</v>
+        <v>582.570868736</v>
       </c>
       <c r="G3" t="n">
-        <v>-1136</v>
+        <v>261</v>
       </c>
       <c r="H3" t="n">
-        <v>-151.971397632</v>
+        <v>35.76902451199999</v>
       </c>
       <c r="I3" t="n">
-        <v>16242</v>
+        <v>19298</v>
       </c>
     </row>
     <row r="4">
@@ -1011,28 +1011,28 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45705</v>
+        <v>45715</v>
       </c>
       <c r="C4" t="n">
-        <v>602</v>
+        <v>77</v>
       </c>
       <c r="D4" t="n">
-        <v>599</v>
+        <v>119</v>
       </c>
       <c r="E4" t="n">
-        <v>-80.919003136</v>
+        <v>-10.474428416</v>
       </c>
       <c r="F4" t="n">
-        <v>80.515751936</v>
+        <v>16.187753472</v>
       </c>
       <c r="G4" t="n">
-        <v>-3</v>
+        <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4032511999999997</v>
+        <v>5.713325056</v>
       </c>
       <c r="I4" t="n">
-        <v>829</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="5">
@@ -1042,28 +1042,28 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45705</v>
+        <v>45715</v>
       </c>
       <c r="C5" t="n">
-        <v>636</v>
+        <v>77</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-85.47548364799999</v>
+        <v>-10.483959808</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-636</v>
+        <v>-77</v>
       </c>
       <c r="H5" t="n">
-        <v>-85.47548364799999</v>
+        <v>-10.483959808</v>
       </c>
       <c r="I5" t="n">
-        <v>-17108</v>
+        <v>-9089</v>
       </c>
     </row>
   </sheetData>
@@ -1104,222 +1104,222 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45705</v>
+        <v>45715</v>
       </c>
       <c r="B2" t="n">
-        <v>3230</v>
+        <v>-2874</v>
       </c>
       <c r="C2" t="n">
-        <v>13222</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45702</v>
+        <v>45714</v>
       </c>
       <c r="B3" t="n">
-        <v>3635</v>
+        <v>304</v>
       </c>
       <c r="C3" t="n">
-        <v>14358</v>
+        <v>-2672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45701</v>
+        <v>45713</v>
       </c>
       <c r="B4" t="n">
-        <v>4160</v>
+        <v>-1613</v>
       </c>
       <c r="C4" t="n">
-        <v>15896</v>
+        <v>-876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45700</v>
+        <v>45712</v>
       </c>
       <c r="B5" t="n">
-        <v>5226</v>
+        <v>1270</v>
       </c>
       <c r="C5" t="n">
-        <v>17941</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45699</v>
+        <v>45709</v>
       </c>
       <c r="B6" t="n">
-        <v>6305</v>
+        <v>1439</v>
       </c>
       <c r="C6" t="n">
-        <v>18738</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45698</v>
+        <v>45708</v>
       </c>
       <c r="B7" t="n">
-        <v>5191</v>
+        <v>-680</v>
       </c>
       <c r="C7" t="n">
-        <v>18979</v>
+        <v>7210</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45695</v>
+        <v>45707</v>
       </c>
       <c r="B8" t="n">
-        <v>4121</v>
+        <v>-3103</v>
       </c>
       <c r="C8" t="n">
-        <v>14757</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45694</v>
+        <v>45706</v>
       </c>
       <c r="B9" t="n">
-        <v>2361</v>
+        <v>-1697</v>
       </c>
       <c r="C9" t="n">
-        <v>11165</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45693</v>
+        <v>45705</v>
       </c>
       <c r="B10" t="n">
-        <v>3401</v>
+        <v>-405</v>
       </c>
       <c r="C10" t="n">
-        <v>10840</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45692</v>
+        <v>45702</v>
       </c>
       <c r="B11" t="n">
-        <v>3410</v>
+        <v>-525</v>
       </c>
       <c r="C11" t="n">
-        <v>11773</v>
+        <v>-1538</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45691</v>
+        <v>45701</v>
       </c>
       <c r="B12" t="n">
-        <v>2163</v>
+        <v>-1066</v>
       </c>
       <c r="C12" t="n">
-        <v>8632</v>
+        <v>-2045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45681</v>
+        <v>45700</v>
       </c>
       <c r="B13" t="n">
-        <v>6946</v>
+        <v>-1079</v>
       </c>
       <c r="C13" t="n">
-        <v>4503</v>
+        <v>-797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45680</v>
+        <v>45699</v>
       </c>
       <c r="B14" t="n">
-        <v>5991</v>
+        <v>1114</v>
       </c>
       <c r="C14" t="n">
-        <v>5323</v>
+        <v>-241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45679</v>
+        <v>45698</v>
       </c>
       <c r="B15" t="n">
-        <v>2894</v>
+        <v>1070</v>
       </c>
       <c r="C15" t="n">
-        <v>6297</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45678</v>
+        <v>45695</v>
       </c>
       <c r="B16" t="n">
-        <v>4245</v>
+        <v>1760</v>
       </c>
       <c r="C16" t="n">
-        <v>8514</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45677</v>
+        <v>45694</v>
       </c>
       <c r="B17" t="n">
-        <v>3682</v>
+        <v>-1040</v>
       </c>
       <c r="C17" t="n">
-        <v>7758</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45674</v>
+        <v>45693</v>
       </c>
       <c r="B18" t="n">
-        <v>3240</v>
+        <v>-9</v>
       </c>
       <c r="C18" t="n">
-        <v>8439</v>
+        <v>-933</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45673</v>
+        <v>45692</v>
       </c>
       <c r="B19" t="n">
-        <v>-182</v>
+        <v>1247</v>
       </c>
       <c r="C19" t="n">
-        <v>8899</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45672</v>
+        <v>45691</v>
       </c>
       <c r="B20" t="n">
-        <v>-552</v>
+        <v>-4783</v>
       </c>
       <c r="C20" t="n">
-        <v>4699</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45671</v>
+        <v>45681</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-820</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45705.38541666666</v>
+        <v>45715.38541666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1388,24 +1388,24 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1278.2099609375</v>
+        <v>1306.599975585938</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.489990234375</v>
+        <v>1307.869995117188</v>
       </c>
       <c r="E2" t="n">
-        <v>1277.119995117188</v>
+        <v>1306.599975585938</v>
       </c>
       <c r="F2" t="n">
-        <v>1277.119995117188</v>
+        <v>1307.31005859375</v>
       </c>
       <c r="G2" t="n">
-        <v>24099900</v>
+        <v>21283700</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45705.38888888889</v>
+        <v>45715.38888888889</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1413,24 +1413,24 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1277.280029296875</v>
+        <v>1306.640014648438</v>
       </c>
       <c r="D3" t="n">
-        <v>1278.18994140625</v>
+        <v>1306.880004882812</v>
       </c>
       <c r="E3" t="n">
-        <v>1277.140014648438</v>
+        <v>1306.390014648438</v>
       </c>
       <c r="F3" t="n">
-        <v>1278.18994140625</v>
+        <v>1306.660034179688</v>
       </c>
       <c r="G3" t="n">
-        <v>17979600</v>
+        <v>18074800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45705.39236111111</v>
+        <v>45715.39236111111</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1438,24 +1438,24 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1276.800048828125</v>
+        <v>1305.869995117188</v>
       </c>
       <c r="D4" t="n">
-        <v>1277.2900390625</v>
+        <v>1306.800048828125</v>
       </c>
       <c r="E4" t="n">
-        <v>1276.800048828125</v>
+        <v>1305.670043945312</v>
       </c>
       <c r="F4" t="n">
-        <v>1277.160034179688</v>
+        <v>1306.650024414062</v>
       </c>
       <c r="G4" t="n">
-        <v>15780000</v>
+        <v>14922700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45705.39583333334</v>
+        <v>45715.39583333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1463,24 +1463,24 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1276.93994140625</v>
+        <v>1305.109985351562</v>
       </c>
       <c r="D5" t="n">
-        <v>1277.22998046875</v>
+        <v>1305.800048828125</v>
       </c>
       <c r="E5" t="n">
-        <v>1276.760009765625</v>
+        <v>1305.030029296875</v>
       </c>
       <c r="F5" t="n">
-        <v>1276.859985351562</v>
+        <v>1305.719970703125</v>
       </c>
       <c r="G5" t="n">
-        <v>13309900</v>
+        <v>14214300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45705.39930555555</v>
+        <v>45715.39930555555</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1488,24 +1488,24 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1276.910034179688</v>
+        <v>1304.930053710938</v>
       </c>
       <c r="D6" t="n">
-        <v>1277.219970703125</v>
+        <v>1305.260009765625</v>
       </c>
       <c r="E6" t="n">
-        <v>1276.640014648438</v>
+        <v>1304.449951171875</v>
       </c>
       <c r="F6" t="n">
-        <v>1276.97998046875</v>
+        <v>1305.109985351562</v>
       </c>
       <c r="G6" t="n">
-        <v>14040400</v>
+        <v>14538900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45705.40277777778</v>
+        <v>45715.40277777778</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1513,24 +1513,24 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1276.260009765625</v>
+        <v>1304.329956054688</v>
       </c>
       <c r="D7" t="n">
-        <v>1276.829956054688</v>
+        <v>1304.969970703125</v>
       </c>
       <c r="E7" t="n">
-        <v>1276.170043945312</v>
+        <v>1304.150024414062</v>
       </c>
       <c r="F7" t="n">
-        <v>1276.829956054688</v>
+        <v>1304.9599609375</v>
       </c>
       <c r="G7" t="n">
-        <v>15082400</v>
+        <v>11874400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45705.40625</v>
+        <v>45715.40625</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1538,24 +1538,24 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1276.5400390625</v>
+        <v>1305.260009765625</v>
       </c>
       <c r="D8" t="n">
-        <v>1276.989990234375</v>
+        <v>1305.410034179688</v>
       </c>
       <c r="E8" t="n">
-        <v>1276.030029296875</v>
+        <v>1304.300048828125</v>
       </c>
       <c r="F8" t="n">
-        <v>1276.260009765625</v>
+        <v>1304.430053710938</v>
       </c>
       <c r="G8" t="n">
-        <v>13974800</v>
+        <v>11843000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45705.40972222222</v>
+        <v>45715.40972222222</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1563,24 +1563,24 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1276.160034179688</v>
+        <v>1305.75</v>
       </c>
       <c r="D9" t="n">
-        <v>1276.81005859375</v>
+        <v>1305.77001953125</v>
       </c>
       <c r="E9" t="n">
-        <v>1276.160034179688</v>
+        <v>1305.349975585938</v>
       </c>
       <c r="F9" t="n">
-        <v>1276.569946289062</v>
+        <v>1305.349975585938</v>
       </c>
       <c r="G9" t="n">
-        <v>11631600</v>
+        <v>14340000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45705.41319444445</v>
+        <v>45715.41319444445</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1588,24 +1588,24 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1275.849975585938</v>
+        <v>1305.630004882812</v>
       </c>
       <c r="D10" t="n">
-        <v>1276.47998046875</v>
+        <v>1305.989990234375</v>
       </c>
       <c r="E10" t="n">
-        <v>1275.680053710938</v>
+        <v>1305.5400390625</v>
       </c>
       <c r="F10" t="n">
-        <v>1276.180053710938</v>
+        <v>1305.670043945312</v>
       </c>
       <c r="G10" t="n">
-        <v>9890200</v>
+        <v>14316800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45705.41666666666</v>
+        <v>45715.41666666666</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1613,24 +1613,24 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1275.030029296875</v>
+        <v>1305.489990234375</v>
       </c>
       <c r="D11" t="n">
-        <v>1276.109985351562</v>
+        <v>1306.010009765625</v>
       </c>
       <c r="E11" t="n">
-        <v>1274.900024414062</v>
+        <v>1305.390014648438</v>
       </c>
       <c r="F11" t="n">
-        <v>1275.920043945312</v>
+        <v>1305.670043945312</v>
       </c>
       <c r="G11" t="n">
-        <v>10220100</v>
+        <v>9887700</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45705.42013888889</v>
+        <v>45715.42013888889</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1274.819946289062</v>
+        <v>1305.400024414062</v>
       </c>
       <c r="D12" t="n">
-        <v>1275.569946289062</v>
+        <v>1305.739990234375</v>
       </c>
       <c r="E12" t="n">
-        <v>1274.5400390625</v>
+        <v>1305.319946289062</v>
       </c>
       <c r="F12" t="n">
-        <v>1275.030029296875</v>
+        <v>1305.5</v>
       </c>
       <c r="G12" t="n">
-        <v>9702100</v>
+        <v>10129500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45705.42361111111</v>
+        <v>45715.42361111111</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1663,24 +1663,24 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1275.449951171875</v>
+        <v>1305.2900390625</v>
       </c>
       <c r="D13" t="n">
-        <v>1275.780029296875</v>
+        <v>1305.819946289062</v>
       </c>
       <c r="E13" t="n">
-        <v>1274.349975585938</v>
+        <v>1305.239990234375</v>
       </c>
       <c r="F13" t="n">
-        <v>1274.699951171875</v>
+        <v>1305.359985351562</v>
       </c>
       <c r="G13" t="n">
-        <v>10214200</v>
+        <v>12137100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45705.42708333334</v>
+        <v>45715.42708333334</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1688,24 +1688,24 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1275.109985351562</v>
+        <v>1305.31005859375</v>
       </c>
       <c r="D14" t="n">
-        <v>1275.97998046875</v>
+        <v>1305.449951171875</v>
       </c>
       <c r="E14" t="n">
-        <v>1274.969970703125</v>
+        <v>1304.949951171875</v>
       </c>
       <c r="F14" t="n">
-        <v>1275.670043945312</v>
+        <v>1305.319946289062</v>
       </c>
       <c r="G14" t="n">
-        <v>8750900</v>
+        <v>14780100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45705.43055555555</v>
+        <v>45715.43055555555</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1713,24 +1713,24 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1275.640014648438</v>
+        <v>1305.2900390625</v>
       </c>
       <c r="D15" t="n">
-        <v>1275.859985351562</v>
+        <v>1305.630004882812</v>
       </c>
       <c r="E15" t="n">
-        <v>1274.910034179688</v>
+        <v>1305.050048828125</v>
       </c>
       <c r="F15" t="n">
-        <v>1274.93994140625</v>
+        <v>1305.31005859375</v>
       </c>
       <c r="G15" t="n">
-        <v>7259000</v>
+        <v>12399800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45705.43402777778</v>
+        <v>45715.43402777778</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1738,24 +1738,24 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1276.569946289062</v>
+        <v>1305.219970703125</v>
       </c>
       <c r="D16" t="n">
-        <v>1276.760009765625</v>
+        <v>1305.43994140625</v>
       </c>
       <c r="E16" t="n">
-        <v>1275.579956054688</v>
+        <v>1305.02001953125</v>
       </c>
       <c r="F16" t="n">
-        <v>1275.579956054688</v>
+        <v>1305.160034179688</v>
       </c>
       <c r="G16" t="n">
-        <v>7527000</v>
+        <v>12765100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45705.4375</v>
+        <v>45715.4375</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1763,24 +1763,24 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1276.900024414062</v>
+        <v>1304.739990234375</v>
       </c>
       <c r="D17" t="n">
-        <v>1276.910034179688</v>
+        <v>1305.489990234375</v>
       </c>
       <c r="E17" t="n">
-        <v>1276.369995117188</v>
+        <v>1304.5400390625</v>
       </c>
       <c r="F17" t="n">
-        <v>1276.52001953125</v>
+        <v>1305.380004882812</v>
       </c>
       <c r="G17" t="n">
-        <v>7473900</v>
+        <v>12247100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45705.44097222222</v>
+        <v>45715.44097222222</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1788,24 +1788,24 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1276.380004882812</v>
+        <v>1304.839965820312</v>
       </c>
       <c r="D18" t="n">
-        <v>1276.969970703125</v>
+        <v>1304.910034179688</v>
       </c>
       <c r="E18" t="n">
-        <v>1276.280029296875</v>
+        <v>1304.430053710938</v>
       </c>
       <c r="F18" t="n">
-        <v>1276.910034179688</v>
+        <v>1304.829956054688</v>
       </c>
       <c r="G18" t="n">
-        <v>9432400</v>
+        <v>13925000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45705.44444444445</v>
+        <v>45715.44444444445</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1813,24 +1813,24 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1276.280029296875</v>
+        <v>1304.52001953125</v>
       </c>
       <c r="D19" t="n">
-        <v>1276.739990234375</v>
+        <v>1304.969970703125</v>
       </c>
       <c r="E19" t="n">
-        <v>1276.069946289062</v>
+        <v>1304.410034179688</v>
       </c>
       <c r="F19" t="n">
-        <v>1276.380004882812</v>
+        <v>1304.969970703125</v>
       </c>
       <c r="G19" t="n">
-        <v>8843200</v>
+        <v>12994600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45705.44791666666</v>
+        <v>45715.44791666666</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1838,24 +1838,24 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1276.140014648438</v>
+        <v>1304.030029296875</v>
       </c>
       <c r="D20" t="n">
-        <v>1276.640014648438</v>
+        <v>1304.589965820312</v>
       </c>
       <c r="E20" t="n">
-        <v>1275.819946289062</v>
+        <v>1303.93994140625</v>
       </c>
       <c r="F20" t="n">
-        <v>1276.27001953125</v>
+        <v>1304.56005859375</v>
       </c>
       <c r="G20" t="n">
-        <v>9004400</v>
+        <v>15831600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45705.45138888889</v>
+        <v>45715.45138888889</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1863,24 +1863,24 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1276.890014648438</v>
+        <v>1303.449951171875</v>
       </c>
       <c r="D21" t="n">
-        <v>1277.359985351562</v>
+        <v>1304.06005859375</v>
       </c>
       <c r="E21" t="n">
-        <v>1276.02001953125</v>
+        <v>1303.339965820312</v>
       </c>
       <c r="F21" t="n">
-        <v>1276.140014648438</v>
+        <v>1303.97998046875</v>
       </c>
       <c r="G21" t="n">
-        <v>13821700</v>
+        <v>18180300</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45705.45486111111</v>
+        <v>45715.45486111111</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1888,24 +1888,24 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1276.469970703125</v>
+        <v>1302.880004882812</v>
       </c>
       <c r="D22" t="n">
-        <v>1277</v>
+        <v>1303.660034179688</v>
       </c>
       <c r="E22" t="n">
-        <v>1276.469970703125</v>
+        <v>1302.819946289062</v>
       </c>
       <c r="F22" t="n">
-        <v>1276.949951171875</v>
+        <v>1303.489990234375</v>
       </c>
       <c r="G22" t="n">
-        <v>21040000</v>
+        <v>13038700</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45705.45833333334</v>
+        <v>45715.45833333334</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1913,24 +1913,24 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1277.430053710938</v>
+        <v>1302.02001953125</v>
       </c>
       <c r="D23" t="n">
-        <v>1277.579956054688</v>
+        <v>1302.949951171875</v>
       </c>
       <c r="E23" t="n">
-        <v>1276.349975585938</v>
+        <v>1302.02001953125</v>
       </c>
       <c r="F23" t="n">
-        <v>1276.52001953125</v>
+        <v>1302.930053710938</v>
       </c>
       <c r="G23" t="n">
-        <v>9874800</v>
+        <v>18247000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45705.46180555555</v>
+        <v>45715.46180555555</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1938,24 +1938,24 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1277.219970703125</v>
+        <v>1300.630004882812</v>
       </c>
       <c r="D24" t="n">
-        <v>1277.599975585938</v>
+        <v>1302.079956054688</v>
       </c>
       <c r="E24" t="n">
-        <v>1276.859985351562</v>
+        <v>1300.579956054688</v>
       </c>
       <c r="F24" t="n">
-        <v>1277.599975585938</v>
+        <v>1301.930053710938</v>
       </c>
       <c r="G24" t="n">
-        <v>15127700</v>
+        <v>21649600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45705.46527777778</v>
+        <v>45715.46527777778</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1963,24 +1963,24 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1276.900024414062</v>
+        <v>1299.93994140625</v>
       </c>
       <c r="D25" t="n">
-        <v>1277.25</v>
+        <v>1300.680053710938</v>
       </c>
       <c r="E25" t="n">
-        <v>1276.869995117188</v>
+        <v>1299.5400390625</v>
       </c>
       <c r="F25" t="n">
-        <v>1277.119995117188</v>
+        <v>1300.630004882812</v>
       </c>
       <c r="G25" t="n">
-        <v>18983300</v>
+        <v>21225700</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45705.46875</v>
+        <v>45715.46875</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1988,24 +1988,24 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1276.819946289062</v>
+        <v>1300.319946289062</v>
       </c>
       <c r="D26" t="n">
-        <v>1277.819946289062</v>
+        <v>1300.469970703125</v>
       </c>
       <c r="E26" t="n">
-        <v>1276.719970703125</v>
+        <v>1299.77001953125</v>
       </c>
       <c r="F26" t="n">
-        <v>1276.930053710938</v>
+        <v>1299.97998046875</v>
       </c>
       <c r="G26" t="n">
-        <v>10995000</v>
+        <v>14397600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45705.47222222222</v>
+        <v>45715.47222222222</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2013,24 +2013,24 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1277.469970703125</v>
+        <v>1300.359985351562</v>
       </c>
       <c r="D27" t="n">
-        <v>1278.130004882812</v>
+        <v>1300.640014648438</v>
       </c>
       <c r="E27" t="n">
-        <v>1276.72998046875</v>
+        <v>1300.170043945312</v>
       </c>
       <c r="F27" t="n">
-        <v>1276.7900390625</v>
+        <v>1300.489990234375</v>
       </c>
       <c r="G27" t="n">
-        <v>9223000</v>
+        <v>10803600</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45705.47569444445</v>
+        <v>45715.47569444445</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2038,24 +2038,24 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1277.410034179688</v>
+        <v>1299.97998046875</v>
       </c>
       <c r="D28" t="n">
-        <v>1278.170043945312</v>
+        <v>1300.56005859375</v>
       </c>
       <c r="E28" t="n">
-        <v>1276.97998046875</v>
+        <v>1299.97998046875</v>
       </c>
       <c r="F28" t="n">
-        <v>1277.369995117188</v>
+        <v>1300.380004882812</v>
       </c>
       <c r="G28" t="n">
-        <v>9592000</v>
+        <v>8987800</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45705.54166666666</v>
+        <v>45715.54166666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2063,24 +2063,24 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1277.5</v>
+        <v>1297.739990234375</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.170043945312</v>
+        <v>1299.680053710938</v>
       </c>
       <c r="E29" t="n">
-        <v>1277.219970703125</v>
+        <v>1297.630004882812</v>
       </c>
       <c r="F29" t="n">
-        <v>1277.719970703125</v>
+        <v>1299.390014648438</v>
       </c>
       <c r="G29" t="n">
-        <v>23440800</v>
+        <v>31110700</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45705.54513888889</v>
+        <v>45715.54513888889</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2088,24 +2088,24 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1277.359985351562</v>
+        <v>1296.72998046875</v>
       </c>
       <c r="D30" t="n">
-        <v>1277.390014648438</v>
+        <v>1297.719970703125</v>
       </c>
       <c r="E30" t="n">
-        <v>1276.920043945312</v>
+        <v>1296.430053710938</v>
       </c>
       <c r="F30" t="n">
-        <v>1277.380004882812</v>
+        <v>1297.719970703125</v>
       </c>
       <c r="G30" t="n">
-        <v>19830600</v>
+        <v>29488600</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45705.54861111111</v>
+        <v>45715.54861111111</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2113,24 +2113,24 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1277.300048828125</v>
+        <v>1298.150024414062</v>
       </c>
       <c r="D31" t="n">
-        <v>1277.869995117188</v>
+        <v>1298.27001953125</v>
       </c>
       <c r="E31" t="n">
-        <v>1277.099975585938</v>
+        <v>1296.719970703125</v>
       </c>
       <c r="F31" t="n">
-        <v>1277.31005859375</v>
+        <v>1296.77001953125</v>
       </c>
       <c r="G31" t="n">
-        <v>20332400</v>
+        <v>23521200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45705.55208333334</v>
+        <v>45715.55208333334</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2138,24 +2138,24 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1277.349975585938</v>
+        <v>1299.390014648438</v>
       </c>
       <c r="D32" t="n">
-        <v>1277.619995117188</v>
+        <v>1299.5</v>
       </c>
       <c r="E32" t="n">
-        <v>1276.97998046875</v>
+        <v>1298.199951171875</v>
       </c>
       <c r="F32" t="n">
-        <v>1277.430053710938</v>
+        <v>1298.329956054688</v>
       </c>
       <c r="G32" t="n">
-        <v>14802300</v>
+        <v>22329600</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45705.55555555555</v>
+        <v>45715.55555555555</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2163,24 +2163,24 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1277.410034179688</v>
+        <v>1299.22998046875</v>
       </c>
       <c r="D33" t="n">
-        <v>1277.619995117188</v>
+        <v>1299.630004882812</v>
       </c>
       <c r="E33" t="n">
-        <v>1277.02001953125</v>
+        <v>1298.869995117188</v>
       </c>
       <c r="F33" t="n">
-        <v>1277.359985351562</v>
+        <v>1299.430053710938</v>
       </c>
       <c r="G33" t="n">
-        <v>14980200</v>
+        <v>15955000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45705.55902777778</v>
+        <v>45715.55902777778</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2188,24 +2188,24 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1276.989990234375</v>
+        <v>1299.050048828125</v>
       </c>
       <c r="D34" t="n">
-        <v>1277.630004882812</v>
+        <v>1299.119995117188</v>
       </c>
       <c r="E34" t="n">
-        <v>1276.7900390625</v>
+        <v>1298.660034179688</v>
       </c>
       <c r="F34" t="n">
-        <v>1277.430053710938</v>
+        <v>1299.0400390625</v>
       </c>
       <c r="G34" t="n">
-        <v>27924992</v>
+        <v>15064500</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45705.5625</v>
+        <v>45715.5625</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2213,24 +2213,24 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1277.199951171875</v>
+        <v>1299.400024414062</v>
       </c>
       <c r="D35" t="n">
-        <v>1277.25</v>
+        <v>1299.489990234375</v>
       </c>
       <c r="E35" t="n">
-        <v>1276.75</v>
+        <v>1298.900024414062</v>
       </c>
       <c r="F35" t="n">
-        <v>1276.910034179688</v>
+        <v>1299.030029296875</v>
       </c>
       <c r="G35" t="n">
-        <v>20220855</v>
+        <v>13226100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45705.56597222222</v>
+        <v>45715.56597222222</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2238,24 +2238,24 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1276.25</v>
+        <v>1300.489990234375</v>
       </c>
       <c r="D36" t="n">
-        <v>1277.380004882812</v>
+        <v>1300.5400390625</v>
       </c>
       <c r="E36" t="n">
-        <v>1276.25</v>
+        <v>1299.369995117188</v>
       </c>
       <c r="F36" t="n">
-        <v>1277.25</v>
+        <v>1299.369995117188</v>
       </c>
       <c r="G36" t="n">
-        <v>30056700</v>
+        <v>13024600</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45705.56944444445</v>
+        <v>45715.56944444445</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2263,24 +2263,24 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1277.469970703125</v>
+        <v>1300.81005859375</v>
       </c>
       <c r="D37" t="n">
-        <v>1277.469970703125</v>
+        <v>1300.900024414062</v>
       </c>
       <c r="E37" t="n">
-        <v>1276.160034179688</v>
+        <v>1300.2099609375</v>
       </c>
       <c r="F37" t="n">
-        <v>1276.380004882812</v>
+        <v>1300.359985351562</v>
       </c>
       <c r="G37" t="n">
-        <v>39828048</v>
+        <v>24700400</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45705.57291666666</v>
+        <v>45715.57291666666</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2288,24 +2288,24 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1277.369995117188</v>
+        <v>1301.079956054688</v>
       </c>
       <c r="D38" t="n">
-        <v>1277.699951171875</v>
+        <v>1301.140014648438</v>
       </c>
       <c r="E38" t="n">
-        <v>1277.160034179688</v>
+        <v>1300.579956054688</v>
       </c>
       <c r="F38" t="n">
-        <v>1277.430053710938</v>
+        <v>1300.81005859375</v>
       </c>
       <c r="G38" t="n">
-        <v>28405622</v>
+        <v>19924500</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45705.57638888889</v>
+        <v>45715.57638888889</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2313,24 +2313,24 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1277.47998046875</v>
+        <v>1302.140014648438</v>
       </c>
       <c r="D39" t="n">
-        <v>1277.550048828125</v>
+        <v>1302.140014648438</v>
       </c>
       <c r="E39" t="n">
-        <v>1276.97998046875</v>
+        <v>1300.890014648438</v>
       </c>
       <c r="F39" t="n">
-        <v>1277.31005859375</v>
+        <v>1300.969970703125</v>
       </c>
       <c r="G39" t="n">
-        <v>21267250</v>
+        <v>26553400</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45705.57986111111</v>
+        <v>45715.57986111111</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2338,24 +2338,24 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1277.170043945312</v>
+        <v>1301.93994140625</v>
       </c>
       <c r="D40" t="n">
-        <v>1277.52001953125</v>
+        <v>1302.130004882812</v>
       </c>
       <c r="E40" t="n">
-        <v>1276.859985351562</v>
+        <v>1301.56005859375</v>
       </c>
       <c r="F40" t="n">
-        <v>1277.469970703125</v>
+        <v>1301.930053710938</v>
       </c>
       <c r="G40" t="n">
-        <v>39308586</v>
+        <v>22484700</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45705.58333333334</v>
+        <v>45715.58333333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2363,24 +2363,24 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1277.430053710938</v>
+        <v>1301.489990234375</v>
       </c>
       <c r="D41" t="n">
-        <v>1277.699951171875</v>
+        <v>1301.869995117188</v>
       </c>
       <c r="E41" t="n">
-        <v>1277.130004882812</v>
+        <v>1301.180053710938</v>
       </c>
       <c r="F41" t="n">
-        <v>1277.130004882812</v>
+        <v>1301.670043945312</v>
       </c>
       <c r="G41" t="n">
-        <v>33906800</v>
+        <v>23293200</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45705.58680555555</v>
+        <v>45715.58680555555</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2388,24 +2388,24 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1277.140014648438</v>
+        <v>1301.969970703125</v>
       </c>
       <c r="D42" t="n">
-        <v>1277.77001953125</v>
+        <v>1301.969970703125</v>
       </c>
       <c r="E42" t="n">
-        <v>1277.140014648438</v>
+        <v>1301.25</v>
       </c>
       <c r="F42" t="n">
-        <v>1277.430053710938</v>
+        <v>1301.5400390625</v>
       </c>
       <c r="G42" t="n">
-        <v>28291000</v>
+        <v>30533300</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45705.59027777778</v>
+        <v>45715.59027777778</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2413,24 +2413,24 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1276.550048828125</v>
+        <v>1303.260009765625</v>
       </c>
       <c r="D43" t="n">
-        <v>1277.349975585938</v>
+        <v>1303.75</v>
       </c>
       <c r="E43" t="n">
-        <v>1276.550048828125</v>
+        <v>1301.72998046875</v>
       </c>
       <c r="F43" t="n">
-        <v>1277.130004882812</v>
+        <v>1301.72998046875</v>
       </c>
       <c r="G43" t="n">
-        <v>28498300</v>
+        <v>32239700</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45705.59375</v>
+        <v>45715.59375</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2438,24 +2438,24 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1274.859985351562</v>
+        <v>1304.4599609375</v>
       </c>
       <c r="D44" t="n">
-        <v>1276.72998046875</v>
+        <v>1304.630004882812</v>
       </c>
       <c r="E44" t="n">
-        <v>1274.7099609375</v>
+        <v>1303.25</v>
       </c>
       <c r="F44" t="n">
-        <v>1276.699951171875</v>
+        <v>1303.329956054688</v>
       </c>
       <c r="G44" t="n">
-        <v>31871300</v>
+        <v>37484438</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45705.59722222222</v>
+        <v>45715.59722222222</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2463,24 +2463,24 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1273.380004882812</v>
+        <v>1306.339965820312</v>
       </c>
       <c r="D45" t="n">
-        <v>1274.68994140625</v>
+        <v>1306.449951171875</v>
       </c>
       <c r="E45" t="n">
-        <v>1273.079956054688</v>
+        <v>1304.280029296875</v>
       </c>
       <c r="F45" t="n">
-        <v>1274.569946289062</v>
+        <v>1304.280029296875</v>
       </c>
       <c r="G45" t="n">
-        <v>39707538</v>
+        <v>33254300</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45705.60069444445</v>
+        <v>45715.60069444445</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2488,24 +2488,24 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1273.469970703125</v>
+        <v>1306.849975585938</v>
       </c>
       <c r="D46" t="n">
-        <v>1273.650024414062</v>
+        <v>1306.849975585938</v>
       </c>
       <c r="E46" t="n">
-        <v>1272.989990234375</v>
+        <v>1305.77001953125</v>
       </c>
       <c r="F46" t="n">
-        <v>1273.180053710938</v>
+        <v>1306.0400390625</v>
       </c>
       <c r="G46" t="n">
-        <v>23433600</v>
+        <v>35182200</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45705.60416666666</v>
+        <v>45715.60416666666</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2513,24 +2513,24 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1273.589965820312</v>
+        <v>1304.68994140625</v>
       </c>
       <c r="D47" t="n">
-        <v>1273.68994140625</v>
+        <v>1307.079956054688</v>
       </c>
       <c r="E47" t="n">
-        <v>1273.589965820312</v>
+        <v>1304.640014648438</v>
       </c>
       <c r="F47" t="n">
-        <v>1273.68994140625</v>
+        <v>1307.079956054688</v>
       </c>
       <c r="G47" t="n">
-        <v>1091600</v>
+        <v>1950700</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45705.60763888889</v>
+        <v>45715.60763888889</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2538,24 +2538,24 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1273.589965820312</v>
+        <v>1304.81005859375</v>
       </c>
       <c r="D48" t="n">
-        <v>1273.589965820312</v>
+        <v>1304.859985351562</v>
       </c>
       <c r="E48" t="n">
-        <v>1273.589965820312</v>
+        <v>1304.81005859375</v>
       </c>
       <c r="F48" t="n">
-        <v>1273.589965820312</v>
+        <v>1304.859985351562</v>
       </c>
       <c r="G48" t="n">
-        <v>366700</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45705.61111111111</v>
+        <v>45715.61111111111</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2563,24 +2563,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1273.589965820312</v>
+        <v>1307</v>
       </c>
       <c r="D49" t="n">
-        <v>1273.589965820312</v>
+        <v>1307</v>
       </c>
       <c r="E49" t="n">
-        <v>1273.589965820312</v>
+        <v>1305.72998046875</v>
       </c>
       <c r="F49" t="n">
-        <v>1273.589965820312</v>
+        <v>1305.72998046875</v>
       </c>
       <c r="G49" t="n">
-        <v>2660000</v>
+        <v>3600162</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45705.61458333334</v>
+        <v>45715.61458333334</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2588,24 +2588,24 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1272.719970703125</v>
+        <v>1307.800048828125</v>
       </c>
       <c r="D50" t="n">
-        <v>1272.719970703125</v>
+        <v>1307.800048828125</v>
       </c>
       <c r="E50" t="n">
-        <v>1272.719970703125</v>
+        <v>1307.800048828125</v>
       </c>
       <c r="F50" t="n">
-        <v>1272.719970703125</v>
+        <v>1307.800048828125</v>
       </c>
       <c r="G50" t="n">
-        <v>29068600</v>
+        <v>43925000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45705.61805555555</v>
+        <v>45715.61805555555</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2613,31 +2613,45 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1272.719970703125</v>
+        <v>1307.800048828125</v>
       </c>
       <c r="D51" t="n">
-        <v>1272.719970703125</v>
+        <v>1307.800048828125</v>
       </c>
       <c r="E51" t="n">
-        <v>1272.719970703125</v>
+        <v>1307.800048828125</v>
       </c>
       <c r="F51" t="n">
-        <v>1272.719970703125</v>
+        <v>1307.800048828125</v>
       </c>
       <c r="G51" t="n">
-        <v>136300</v>
+        <v>1407000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45705.62152777778</v>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+        <v>45715.62152777778</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>VNINDEX</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1307.800048828125</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1307.800048828125</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1307.800048828125</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1307.800048828125</v>
+      </c>
+      <c r="G52" t="n">
+        <v>273000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2697,7 +2711,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45705.38541666666</v>
+        <v>45715.38541666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2705,24 +2719,24 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1341.609985351562</v>
+        <v>1362.140014648438</v>
       </c>
       <c r="D2" t="n">
-        <v>1342.890014648438</v>
+        <v>1364.27001953125</v>
       </c>
       <c r="E2" t="n">
-        <v>1340.739990234375</v>
+        <v>1362.140014648438</v>
       </c>
       <c r="F2" t="n">
-        <v>1341.180053710938</v>
+        <v>1363.369995117188</v>
       </c>
       <c r="G2" t="n">
-        <v>5278802</v>
+        <v>5577305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45705.38888888889</v>
+        <v>45715.38888888889</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2730,24 +2744,24 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1339.890014648438</v>
+        <v>1361.7099609375</v>
       </c>
       <c r="D3" t="n">
-        <v>1341.579956054688</v>
+        <v>1362.449951171875</v>
       </c>
       <c r="E3" t="n">
-        <v>1339.599975585938</v>
+        <v>1361.300048828125</v>
       </c>
       <c r="F3" t="n">
-        <v>1340.819946289062</v>
+        <v>1362.22998046875</v>
       </c>
       <c r="G3" t="n">
-        <v>3505901</v>
+        <v>3921300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45705.39236111111</v>
+        <v>45715.39236111111</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2755,24 +2769,24 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1339.119995117188</v>
+        <v>1360.839965820312</v>
       </c>
       <c r="D4" t="n">
-        <v>1339.839965820312</v>
+        <v>1362.160034179688</v>
       </c>
       <c r="E4" t="n">
-        <v>1339.050048828125</v>
+        <v>1360.5400390625</v>
       </c>
       <c r="F4" t="n">
-        <v>1339.77001953125</v>
+        <v>1361.949951171875</v>
       </c>
       <c r="G4" t="n">
-        <v>2158500</v>
+        <v>2975000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45705.39583333334</v>
+        <v>45715.39583333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2780,24 +2794,24 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1338.989990234375</v>
+        <v>1359.81005859375</v>
       </c>
       <c r="D5" t="n">
-        <v>1339.739990234375</v>
+        <v>1360.920043945312</v>
       </c>
       <c r="E5" t="n">
-        <v>1338.780029296875</v>
+        <v>1359.670043945312</v>
       </c>
       <c r="F5" t="n">
-        <v>1339.239990234375</v>
+        <v>1360.800048828125</v>
       </c>
       <c r="G5" t="n">
-        <v>2651515</v>
+        <v>2805702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45705.39930555555</v>
+        <v>45715.39930555555</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2805,24 +2819,24 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1339.06005859375</v>
+        <v>1359.819946289062</v>
       </c>
       <c r="D6" t="n">
-        <v>1339.06005859375</v>
+        <v>1360.390014648438</v>
       </c>
       <c r="E6" t="n">
-        <v>1338.359985351562</v>
+        <v>1359.140014648438</v>
       </c>
       <c r="F6" t="n">
-        <v>1338.949951171875</v>
+        <v>1359.81005859375</v>
       </c>
       <c r="G6" t="n">
-        <v>1987200</v>
+        <v>4322700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45705.40277777778</v>
+        <v>45715.40277777778</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2830,24 +2844,24 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1338.010009765625</v>
+        <v>1359.280029296875</v>
       </c>
       <c r="D7" t="n">
-        <v>1338.670043945312</v>
+        <v>1360.199951171875</v>
       </c>
       <c r="E7" t="n">
-        <v>1337.699951171875</v>
+        <v>1359.02001953125</v>
       </c>
       <c r="F7" t="n">
-        <v>1338.630004882812</v>
+        <v>1359.739990234375</v>
       </c>
       <c r="G7" t="n">
-        <v>4535802</v>
+        <v>2933600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45705.40625</v>
+        <v>45715.40625</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2855,24 +2869,24 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1337.68994140625</v>
+        <v>1359.949951171875</v>
       </c>
       <c r="D8" t="n">
-        <v>1338.18994140625</v>
+        <v>1360.550048828125</v>
       </c>
       <c r="E8" t="n">
-        <v>1337.160034179688</v>
+        <v>1358.97998046875</v>
       </c>
       <c r="F8" t="n">
-        <v>1338.010009765625</v>
+        <v>1359.420043945312</v>
       </c>
       <c r="G8" t="n">
-        <v>4830801</v>
+        <v>3571701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45705.40972222222</v>
+        <v>45715.40972222222</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2880,24 +2894,24 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1337.22998046875</v>
+        <v>1361.099975585938</v>
       </c>
       <c r="D9" t="n">
-        <v>1338.030029296875</v>
+        <v>1361.130004882812</v>
       </c>
       <c r="E9" t="n">
-        <v>1336.93994140625</v>
+        <v>1359.890014648438</v>
       </c>
       <c r="F9" t="n">
-        <v>1337.630004882812</v>
+        <v>1360.0400390625</v>
       </c>
       <c r="G9" t="n">
-        <v>4322001</v>
+        <v>3542701</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45705.41319444445</v>
+        <v>45715.41319444445</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2905,24 +2919,24 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1337.2099609375</v>
+        <v>1360.569946289062</v>
       </c>
       <c r="D10" t="n">
-        <v>1337.7900390625</v>
+        <v>1361.18994140625</v>
       </c>
       <c r="E10" t="n">
-        <v>1336.760009765625</v>
+        <v>1360.380004882812</v>
       </c>
       <c r="F10" t="n">
-        <v>1337.22998046875</v>
+        <v>1360.93994140625</v>
       </c>
       <c r="G10" t="n">
-        <v>3595501</v>
+        <v>2889202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45705.41666666666</v>
+        <v>45715.41666666666</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2930,24 +2944,24 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1336.260009765625</v>
+        <v>1360.56005859375</v>
       </c>
       <c r="D11" t="n">
-        <v>1337.329956054688</v>
+        <v>1361.0400390625</v>
       </c>
       <c r="E11" t="n">
-        <v>1335.93994140625</v>
+        <v>1360.319946289062</v>
       </c>
       <c r="F11" t="n">
-        <v>1337.130004882812</v>
+        <v>1360.68994140625</v>
       </c>
       <c r="G11" t="n">
-        <v>2838216</v>
+        <v>1969900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45705.42013888889</v>
+        <v>45715.42013888889</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2955,24 +2969,24 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1336.300048828125</v>
+        <v>1360.369995117188</v>
       </c>
       <c r="D12" t="n">
-        <v>1336.760009765625</v>
+        <v>1361.06005859375</v>
       </c>
       <c r="E12" t="n">
-        <v>1335.719970703125</v>
+        <v>1360.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1336.140014648438</v>
+        <v>1360.390014648438</v>
       </c>
       <c r="G12" t="n">
-        <v>2524304</v>
+        <v>2081800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45705.42361111111</v>
+        <v>45715.42361111111</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2980,24 +2994,24 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1337.630004882812</v>
+        <v>1360</v>
       </c>
       <c r="D13" t="n">
-        <v>1337.869995117188</v>
+        <v>1360.839965820312</v>
       </c>
       <c r="E13" t="n">
-        <v>1335.640014648438</v>
+        <v>1360</v>
       </c>
       <c r="F13" t="n">
-        <v>1336.359985351562</v>
+        <v>1360.430053710938</v>
       </c>
       <c r="G13" t="n">
-        <v>2901605</v>
+        <v>1830600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45705.42708333334</v>
+        <v>45715.42708333334</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3005,24 +3019,24 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1336.97998046875</v>
+        <v>1360.369995117188</v>
       </c>
       <c r="D14" t="n">
-        <v>1338.650024414062</v>
+        <v>1360.469970703125</v>
       </c>
       <c r="E14" t="n">
-        <v>1336.7900390625</v>
+        <v>1359.7900390625</v>
       </c>
       <c r="F14" t="n">
-        <v>1337.849975585938</v>
+        <v>1360.089965820312</v>
       </c>
       <c r="G14" t="n">
-        <v>3424804</v>
+        <v>2341700</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45705.43055555555</v>
+        <v>45715.43055555555</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3030,24 +3044,24 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1337.650024414062</v>
+        <v>1360.239990234375</v>
       </c>
       <c r="D15" t="n">
-        <v>1338.170043945312</v>
+        <v>1361</v>
       </c>
       <c r="E15" t="n">
-        <v>1336.739990234375</v>
+        <v>1360.170043945312</v>
       </c>
       <c r="F15" t="n">
-        <v>1337.010009765625</v>
+        <v>1360.369995117188</v>
       </c>
       <c r="G15" t="n">
-        <v>2061201</v>
+        <v>2174100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45705.43402777778</v>
+        <v>45715.43402777778</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3055,24 +3069,24 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1338.31005859375</v>
+        <v>1360.400024414062</v>
       </c>
       <c r="D16" t="n">
-        <v>1338.829956054688</v>
+        <v>1360.5</v>
       </c>
       <c r="E16" t="n">
-        <v>1337.599975585938</v>
+        <v>1359.81005859375</v>
       </c>
       <c r="F16" t="n">
-        <v>1337.650024414062</v>
+        <v>1360.239990234375</v>
       </c>
       <c r="G16" t="n">
-        <v>2935100</v>
+        <v>2319700</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45705.4375</v>
+        <v>45715.4375</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3080,24 +3094,24 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1338.56005859375</v>
+        <v>1360.160034179688</v>
       </c>
       <c r="D17" t="n">
-        <v>1338.739990234375</v>
+        <v>1360.72998046875</v>
       </c>
       <c r="E17" t="n">
-        <v>1338.069946289062</v>
+        <v>1359.670043945312</v>
       </c>
       <c r="F17" t="n">
-        <v>1338.4599609375</v>
+        <v>1360.31005859375</v>
       </c>
       <c r="G17" t="n">
-        <v>2496216</v>
+        <v>2308901</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45705.44097222222</v>
+        <v>45715.44097222222</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3105,24 +3119,24 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1337.640014648438</v>
+        <v>1360.390014648438</v>
       </c>
       <c r="D18" t="n">
-        <v>1338.68994140625</v>
+        <v>1360.510009765625</v>
       </c>
       <c r="E18" t="n">
-        <v>1337.589965820312</v>
+        <v>1359.319946289062</v>
       </c>
       <c r="F18" t="n">
-        <v>1338.68994140625</v>
+        <v>1360.18994140625</v>
       </c>
       <c r="G18" t="n">
-        <v>2167601</v>
+        <v>4212200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45705.44444444445</v>
+        <v>45715.44444444445</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3130,24 +3144,24 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1337.410034179688</v>
+        <v>1359.989990234375</v>
       </c>
       <c r="D19" t="n">
-        <v>1338.400024414062</v>
+        <v>1360.739990234375</v>
       </c>
       <c r="E19" t="n">
-        <v>1337.319946289062</v>
+        <v>1359.5400390625</v>
       </c>
       <c r="F19" t="n">
-        <v>1337.640014648438</v>
+        <v>1360.739990234375</v>
       </c>
       <c r="G19" t="n">
-        <v>1992003</v>
+        <v>4342300</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45705.44791666666</v>
+        <v>45715.44791666666</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3155,24 +3169,24 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1337.650024414062</v>
+        <v>1358.829956054688</v>
       </c>
       <c r="D20" t="n">
-        <v>1338.099975585938</v>
+        <v>1359.920043945312</v>
       </c>
       <c r="E20" t="n">
-        <v>1337.27001953125</v>
+        <v>1358.609985351562</v>
       </c>
       <c r="F20" t="n">
-        <v>1337.369995117188</v>
+        <v>1359.920043945312</v>
       </c>
       <c r="G20" t="n">
-        <v>1718600</v>
+        <v>4028200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45705.45138888889</v>
+        <v>45715.45138888889</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3180,24 +3194,24 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1338.369995117188</v>
+        <v>1358.75</v>
       </c>
       <c r="D21" t="n">
-        <v>1339.81005859375</v>
+        <v>1359.5</v>
       </c>
       <c r="E21" t="n">
-        <v>1337.4599609375</v>
+        <v>1358.369995117188</v>
       </c>
       <c r="F21" t="n">
-        <v>1337.650024414062</v>
+        <v>1358.7099609375</v>
       </c>
       <c r="G21" t="n">
-        <v>3087205</v>
+        <v>2921301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45705.45486111111</v>
+        <v>45715.45486111111</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3205,24 +3219,24 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1338.06005859375</v>
+        <v>1358.719970703125</v>
       </c>
       <c r="D22" t="n">
-        <v>1338.650024414062</v>
+        <v>1359.300048828125</v>
       </c>
       <c r="E22" t="n">
-        <v>1338</v>
+        <v>1358.329956054688</v>
       </c>
       <c r="F22" t="n">
-        <v>1338.489990234375</v>
+        <v>1358.819946289062</v>
       </c>
       <c r="G22" t="n">
-        <v>13336800</v>
+        <v>3569300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45705.45833333334</v>
+        <v>45715.45833333334</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3230,24 +3244,24 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1339.52001953125</v>
+        <v>1358.239990234375</v>
       </c>
       <c r="D23" t="n">
-        <v>1339.7099609375</v>
+        <v>1359.010009765625</v>
       </c>
       <c r="E23" t="n">
-        <v>1337.859985351562</v>
+        <v>1358.0400390625</v>
       </c>
       <c r="F23" t="n">
-        <v>1338.180053710938</v>
+        <v>1358.72998046875</v>
       </c>
       <c r="G23" t="n">
-        <v>4508914</v>
+        <v>4260200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45705.46180555555</v>
+        <v>45715.46180555555</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3255,24 +3269,24 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1338.880004882812</v>
+        <v>1356.530029296875</v>
       </c>
       <c r="D24" t="n">
-        <v>1339.609985351562</v>
+        <v>1358.2099609375</v>
       </c>
       <c r="E24" t="n">
-        <v>1338.31005859375</v>
+        <v>1356.400024414062</v>
       </c>
       <c r="F24" t="n">
-        <v>1339.339965820312</v>
+        <v>1358.089965820312</v>
       </c>
       <c r="G24" t="n">
-        <v>4054802</v>
+        <v>6309600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45705.46527777778</v>
+        <v>45715.46527777778</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3280,24 +3294,24 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1338.349975585938</v>
+        <v>1356.150024414062</v>
       </c>
       <c r="D25" t="n">
-        <v>1338.829956054688</v>
+        <v>1357.150024414062</v>
       </c>
       <c r="E25" t="n">
-        <v>1338.319946289062</v>
+        <v>1355.640014648438</v>
       </c>
       <c r="F25" t="n">
-        <v>1338.739990234375</v>
+        <v>1356.77001953125</v>
       </c>
       <c r="G25" t="n">
-        <v>2907001</v>
+        <v>4623200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45705.46875</v>
+        <v>45715.46875</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3305,24 +3319,24 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1337.77001953125</v>
+        <v>1356.010009765625</v>
       </c>
       <c r="D26" t="n">
-        <v>1339.599975585938</v>
+        <v>1356.589965820312</v>
       </c>
       <c r="E26" t="n">
-        <v>1337.739990234375</v>
+        <v>1355.650024414062</v>
       </c>
       <c r="F26" t="n">
-        <v>1338.4599609375</v>
+        <v>1356.170043945312</v>
       </c>
       <c r="G26" t="n">
-        <v>2487902</v>
+        <v>4571401</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45705.47222222222</v>
+        <v>45715.47222222222</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -3330,24 +3344,24 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1338.969970703125</v>
+        <v>1355.930053710938</v>
       </c>
       <c r="D27" t="n">
-        <v>1340.329956054688</v>
+        <v>1356.5400390625</v>
       </c>
       <c r="E27" t="n">
-        <v>1337.739990234375</v>
+        <v>1355.609985351562</v>
       </c>
       <c r="F27" t="n">
-        <v>1337.739990234375</v>
+        <v>1356.359985351562</v>
       </c>
       <c r="G27" t="n">
-        <v>2644700</v>
+        <v>3123401</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45705.47569444445</v>
+        <v>45715.47569444445</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -3355,24 +3369,24 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1339.140014648438</v>
+        <v>1355.31005859375</v>
       </c>
       <c r="D28" t="n">
-        <v>1340.339965820312</v>
+        <v>1356.329956054688</v>
       </c>
       <c r="E28" t="n">
-        <v>1338.47998046875</v>
+        <v>1355.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1338.849975585938</v>
+        <v>1356.050048828125</v>
       </c>
       <c r="G28" t="n">
-        <v>1812202</v>
+        <v>2727800</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45705.54166666666</v>
+        <v>45715.54166666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3380,24 +3394,24 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1338.369995117188</v>
+        <v>1353.890014648438</v>
       </c>
       <c r="D29" t="n">
-        <v>1339.550048828125</v>
+        <v>1355.43994140625</v>
       </c>
       <c r="E29" t="n">
-        <v>1338.0400390625</v>
+        <v>1353.430053710938</v>
       </c>
       <c r="F29" t="n">
-        <v>1339.150024414062</v>
+        <v>1355.300048828125</v>
       </c>
       <c r="G29" t="n">
-        <v>8133646</v>
+        <v>10851911</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45705.54513888889</v>
+        <v>45715.54513888889</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -3405,24 +3419,24 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1339.099975585938</v>
+        <v>1351.4599609375</v>
       </c>
       <c r="D30" t="n">
-        <v>1339.099975585938</v>
+        <v>1353.800048828125</v>
       </c>
       <c r="E30" t="n">
-        <v>1337.800048828125</v>
+        <v>1351.050048828125</v>
       </c>
       <c r="F30" t="n">
-        <v>1338.530029296875</v>
+        <v>1353.800048828125</v>
       </c>
       <c r="G30" t="n">
-        <v>9270400</v>
+        <v>9629400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45705.54861111111</v>
+        <v>45715.54861111111</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -3430,24 +3444,24 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1338.56005859375</v>
+        <v>1352.910034179688</v>
       </c>
       <c r="D31" t="n">
-        <v>1339.400024414062</v>
+        <v>1353.369995117188</v>
       </c>
       <c r="E31" t="n">
-        <v>1338.4599609375</v>
+        <v>1351.199951171875</v>
       </c>
       <c r="F31" t="n">
-        <v>1339.010009765625</v>
+        <v>1351.410034179688</v>
       </c>
       <c r="G31" t="n">
-        <v>6221900</v>
+        <v>6618800</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45705.55208333334</v>
+        <v>45715.55208333334</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -3455,24 +3469,24 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1338.829956054688</v>
+        <v>1354.030029296875</v>
       </c>
       <c r="D32" t="n">
-        <v>1339.119995117188</v>
+        <v>1354.670043945312</v>
       </c>
       <c r="E32" t="n">
-        <v>1338</v>
+        <v>1352.9599609375</v>
       </c>
       <c r="F32" t="n">
-        <v>1338.920043945312</v>
+        <v>1353.2900390625</v>
       </c>
       <c r="G32" t="n">
-        <v>3239600</v>
+        <v>4909000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45705.55555555555</v>
+        <v>45715.55555555555</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3480,24 +3494,24 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1338.910034179688</v>
+        <v>1354.099975585938</v>
       </c>
       <c r="D33" t="n">
-        <v>1339.2900390625</v>
+        <v>1354.670043945312</v>
       </c>
       <c r="E33" t="n">
-        <v>1338.180053710938</v>
+        <v>1353.670043945312</v>
       </c>
       <c r="F33" t="n">
-        <v>1338.7099609375</v>
+        <v>1354.069946289062</v>
       </c>
       <c r="G33" t="n">
-        <v>3387701</v>
+        <v>4274600</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45705.55902777778</v>
+        <v>45715.55902777778</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3505,24 +3519,24 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1338.300048828125</v>
+        <v>1354.069946289062</v>
       </c>
       <c r="D34" t="n">
-        <v>1339.130004882812</v>
+        <v>1354.300048828125</v>
       </c>
       <c r="E34" t="n">
-        <v>1337.829956054688</v>
+        <v>1353.150024414062</v>
       </c>
       <c r="F34" t="n">
-        <v>1338.969970703125</v>
+        <v>1353.630004882812</v>
       </c>
       <c r="G34" t="n">
-        <v>14449493</v>
+        <v>4847900</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45705.5625</v>
+        <v>45715.5625</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3530,24 +3544,24 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1338.410034179688</v>
+        <v>1353.72998046875</v>
       </c>
       <c r="D35" t="n">
-        <v>1338.68994140625</v>
+        <v>1354.349975585938</v>
       </c>
       <c r="E35" t="n">
-        <v>1337.77001953125</v>
+        <v>1353.56005859375</v>
       </c>
       <c r="F35" t="n">
-        <v>1338.68994140625</v>
+        <v>1353.780029296875</v>
       </c>
       <c r="G35" t="n">
-        <v>6477260</v>
+        <v>3973100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45705.56597222222</v>
+        <v>45715.56597222222</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3555,24 +3569,24 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1337.109985351562</v>
+        <v>1354.989990234375</v>
       </c>
       <c r="D36" t="n">
-        <v>1338.920043945312</v>
+        <v>1355.119995117188</v>
       </c>
       <c r="E36" t="n">
-        <v>1337.109985351562</v>
+        <v>1353.7099609375</v>
       </c>
       <c r="F36" t="n">
-        <v>1338.47998046875</v>
+        <v>1353.72998046875</v>
       </c>
       <c r="G36" t="n">
-        <v>5899600</v>
+        <v>3798300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45705.56944444445</v>
+        <v>45715.56944444445</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3580,24 +3594,24 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1338.300048828125</v>
+        <v>1355.390014648438</v>
       </c>
       <c r="D37" t="n">
-        <v>1338.630004882812</v>
+        <v>1355.7900390625</v>
       </c>
       <c r="E37" t="n">
-        <v>1336.800048828125</v>
+        <v>1354.5400390625</v>
       </c>
       <c r="F37" t="n">
-        <v>1337.150024414062</v>
+        <v>1354.72998046875</v>
       </c>
       <c r="G37" t="n">
-        <v>11269448</v>
+        <v>3344300</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45705.57291666666</v>
+        <v>45715.57291666666</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3605,24 +3619,24 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1338.780029296875</v>
+        <v>1355.550048828125</v>
       </c>
       <c r="D38" t="n">
-        <v>1339.239990234375</v>
+        <v>1355.780029296875</v>
       </c>
       <c r="E38" t="n">
-        <v>1338.150024414062</v>
+        <v>1354.72998046875</v>
       </c>
       <c r="F38" t="n">
-        <v>1338.150024414062</v>
+        <v>1355.579956054688</v>
       </c>
       <c r="G38" t="n">
-        <v>6724922</v>
+        <v>4857201</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45705.57638888889</v>
+        <v>45715.57638888889</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3630,24 +3644,24 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1338.829956054688</v>
+        <v>1356.760009765625</v>
       </c>
       <c r="D39" t="n">
-        <v>1339.219970703125</v>
+        <v>1357.079956054688</v>
       </c>
       <c r="E39" t="n">
-        <v>1338.219970703125</v>
+        <v>1355.180053710938</v>
       </c>
       <c r="F39" t="n">
-        <v>1338.760009765625</v>
+        <v>1355.739990234375</v>
       </c>
       <c r="G39" t="n">
-        <v>5328103</v>
+        <v>11004400</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45705.57986111111</v>
+        <v>45715.57986111111</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3655,24 +3669,24 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1338.180053710938</v>
+        <v>1356.0400390625</v>
       </c>
       <c r="D40" t="n">
-        <v>1338.890014648438</v>
+        <v>1356.719970703125</v>
       </c>
       <c r="E40" t="n">
-        <v>1337.719970703125</v>
+        <v>1355.449951171875</v>
       </c>
       <c r="F40" t="n">
-        <v>1338.680053710938</v>
+        <v>1356.369995117188</v>
       </c>
       <c r="G40" t="n">
-        <v>5821800</v>
+        <v>7955700</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45705.58333333334</v>
+        <v>45715.58333333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3680,24 +3694,24 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1339.349975585938</v>
+        <v>1356.130004882812</v>
       </c>
       <c r="D41" t="n">
-        <v>1339.349975585938</v>
+        <v>1356.72998046875</v>
       </c>
       <c r="E41" t="n">
-        <v>1337.97998046875</v>
+        <v>1355.390014648438</v>
       </c>
       <c r="F41" t="n">
-        <v>1338.099975585938</v>
+        <v>1356.140014648438</v>
       </c>
       <c r="G41" t="n">
-        <v>5724600</v>
+        <v>7363200</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45705.58680555555</v>
+        <v>45715.58680555555</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3705,24 +3719,24 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1338.780029296875</v>
+        <v>1357.2099609375</v>
       </c>
       <c r="D42" t="n">
-        <v>1339.7900390625</v>
+        <v>1357.2099609375</v>
       </c>
       <c r="E42" t="n">
-        <v>1338.619995117188</v>
+        <v>1355.550048828125</v>
       </c>
       <c r="F42" t="n">
-        <v>1338.619995117188</v>
+        <v>1356.089965820312</v>
       </c>
       <c r="G42" t="n">
-        <v>5914100</v>
+        <v>13708400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45705.59027777778</v>
+        <v>45715.59027777778</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3730,24 +3744,24 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1338.27001953125</v>
+        <v>1358.589965820312</v>
       </c>
       <c r="D43" t="n">
-        <v>1339.359985351562</v>
+        <v>1359.119995117188</v>
       </c>
       <c r="E43" t="n">
-        <v>1338.130004882812</v>
+        <v>1356.47998046875</v>
       </c>
       <c r="F43" t="n">
-        <v>1338.569946289062</v>
+        <v>1356.650024414062</v>
       </c>
       <c r="G43" t="n">
-        <v>6882400</v>
+        <v>11918900</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45705.59375</v>
+        <v>45715.59375</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3755,24 +3769,24 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1336.56005859375</v>
+        <v>1359.489990234375</v>
       </c>
       <c r="D44" t="n">
-        <v>1338.890014648438</v>
+        <v>1360.06005859375</v>
       </c>
       <c r="E44" t="n">
-        <v>1336.380004882812</v>
+        <v>1358.239990234375</v>
       </c>
       <c r="F44" t="n">
-        <v>1338.530029296875</v>
+        <v>1358.300048828125</v>
       </c>
       <c r="G44" t="n">
-        <v>7529801</v>
+        <v>7997700</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45705.59722222222</v>
+        <v>45715.59722222222</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3780,24 +3794,24 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1335.089965820312</v>
+        <v>1361.609985351562</v>
       </c>
       <c r="D45" t="n">
-        <v>1336.589965820312</v>
+        <v>1361.819946289062</v>
       </c>
       <c r="E45" t="n">
-        <v>1334.31005859375</v>
+        <v>1359.359985351562</v>
       </c>
       <c r="F45" t="n">
-        <v>1336.319946289062</v>
+        <v>1359.390014648438</v>
       </c>
       <c r="G45" t="n">
-        <v>17784838</v>
+        <v>10811201</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45705.60069444445</v>
+        <v>45715.60069444445</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3805,24 +3819,24 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1334.569946289062</v>
+        <v>1361.7099609375</v>
       </c>
       <c r="D46" t="n">
-        <v>1335.130004882812</v>
+        <v>1361.989990234375</v>
       </c>
       <c r="E46" t="n">
-        <v>1334.010009765625</v>
+        <v>1360.130004882812</v>
       </c>
       <c r="F46" t="n">
-        <v>1334.599975585938</v>
+        <v>1361.369995117188</v>
       </c>
       <c r="G46" t="n">
-        <v>6287700</v>
+        <v>8695100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45705.60416666666</v>
+        <v>45715.60416666666</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3830,24 +3844,24 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1334.670043945312</v>
+        <v>1358.9599609375</v>
       </c>
       <c r="D47" t="n">
-        <v>1334.760009765625</v>
+        <v>1361.839965820312</v>
       </c>
       <c r="E47" t="n">
-        <v>1334.670043945312</v>
+        <v>1358.9599609375</v>
       </c>
       <c r="F47" t="n">
-        <v>1334.760009765625</v>
+        <v>1361.650024414062</v>
       </c>
       <c r="G47" t="n">
-        <v>418901</v>
+        <v>741401</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45705.60763888889</v>
+        <v>45715.60763888889</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3855,35 +3869,49 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1334.670043945312</v>
+        <v>1361.839965820312</v>
       </c>
       <c r="D48" t="n">
-        <v>1334.670043945312</v>
+        <v>1361.839965820312</v>
       </c>
       <c r="E48" t="n">
-        <v>1334.670043945312</v>
+        <v>1361.839965820312</v>
       </c>
       <c r="F48" t="n">
-        <v>1334.670043945312</v>
+        <v>1361.839965820312</v>
       </c>
       <c r="G48" t="n">
-        <v>166700</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45705.61111111111</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+        <v>45715.61111111111</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>VN30</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1361.839965820312</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1361.839965820312</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1361.839965820312</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1361.839965820312</v>
+      </c>
+      <c r="G49" t="n">
+        <v>121000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45705.61458333334</v>
+        <v>45715.61458333334</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3891,24 +3919,24 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1334.010009765625</v>
+        <v>1363.619995117188</v>
       </c>
       <c r="D50" t="n">
-        <v>1334.010009765625</v>
+        <v>1363.619995117188</v>
       </c>
       <c r="E50" t="n">
-        <v>1334.010009765625</v>
+        <v>1363.619995117188</v>
       </c>
       <c r="F50" t="n">
-        <v>1334.010009765625</v>
+        <v>1363.619995117188</v>
       </c>
       <c r="G50" t="n">
-        <v>11376200</v>
+        <v>15451000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45705.61805555555</v>
+        <v>45715.61805555555</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3916,31 +3944,45 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1334.010009765625</v>
+        <v>1363.619995117188</v>
       </c>
       <c r="D51" t="n">
-        <v>1334.010009765625</v>
+        <v>1363.619995117188</v>
       </c>
       <c r="E51" t="n">
-        <v>1334.010009765625</v>
+        <v>1363.619995117188</v>
       </c>
       <c r="F51" t="n">
-        <v>1334.010009765625</v>
+        <v>1363.619995117188</v>
       </c>
       <c r="G51" t="n">
-        <v>87700</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45705.62152777778</v>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+        <v>45715.62152777778</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>VN30</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1363.619995117188</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1363.619995117188</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1363.619995117188</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1363.619995117188</v>
+      </c>
+      <c r="G52" t="n">
+        <v>73000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4000,7 +4042,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45705.38541666666</v>
+        <v>45715.38541666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4008,24 +4050,24 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1340.800048828125</v>
+        <v>1362.400024414062</v>
       </c>
       <c r="D2" t="n">
-        <v>1341.400024414062</v>
+        <v>1363.199951171875</v>
       </c>
       <c r="E2" t="n">
-        <v>1340.5</v>
+        <v>1362.199951171875</v>
       </c>
       <c r="F2" t="n">
-        <v>1340.699951171875</v>
+        <v>1362.599975585938</v>
       </c>
       <c r="G2" t="n">
-        <v>2589</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45705.38888888889</v>
+        <v>45715.38888888889</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4033,24 +4075,24 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1340.199951171875</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="D3" t="n">
-        <v>1340.599975585938</v>
+        <v>1362.800048828125</v>
       </c>
       <c r="E3" t="n">
-        <v>1339.199951171875</v>
+        <v>1362.199951171875</v>
       </c>
       <c r="F3" t="n">
-        <v>1340.599975585938</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="G3" t="n">
-        <v>3049</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45705.39236111111</v>
+        <v>45715.39236111111</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4058,24 +4100,24 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1340.400024414062</v>
+        <v>1361.800048828125</v>
       </c>
       <c r="D4" t="n">
-        <v>1340.599975585938</v>
+        <v>1362.800048828125</v>
       </c>
       <c r="E4" t="n">
-        <v>1339.800048828125</v>
+        <v>1361.800048828125</v>
       </c>
       <c r="F4" t="n">
-        <v>1340.099975585938</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="G4" t="n">
-        <v>875</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45705.39583333334</v>
+        <v>45715.39583333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4083,24 +4125,24 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1341</v>
+        <v>1361.900024414062</v>
       </c>
       <c r="D5" t="n">
-        <v>1341</v>
+        <v>1362</v>
       </c>
       <c r="E5" t="n">
-        <v>1340.099975585938</v>
+        <v>1361.099975585938</v>
       </c>
       <c r="F5" t="n">
-        <v>1340.300048828125</v>
+        <v>1361.699951171875</v>
       </c>
       <c r="G5" t="n">
-        <v>1094</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45705.39930555555</v>
+        <v>45715.39930555555</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4108,24 +4150,24 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1339.800048828125</v>
+        <v>1362</v>
       </c>
       <c r="D6" t="n">
-        <v>1341.699951171875</v>
+        <v>1362.199951171875</v>
       </c>
       <c r="E6" t="n">
-        <v>1339.699951171875</v>
+        <v>1361.300048828125</v>
       </c>
       <c r="F6" t="n">
-        <v>1341</v>
+        <v>1361.900024414062</v>
       </c>
       <c r="G6" t="n">
-        <v>3201</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45705.40277777778</v>
+        <v>45715.40277777778</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -4133,24 +4175,24 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1339.300048828125</v>
+        <v>1361.599975585938</v>
       </c>
       <c r="D7" t="n">
-        <v>1339.800048828125</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="E7" t="n">
-        <v>1338.199951171875</v>
+        <v>1361.199951171875</v>
       </c>
       <c r="F7" t="n">
-        <v>1339.699951171875</v>
+        <v>1362</v>
       </c>
       <c r="G7" t="n">
-        <v>3676</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45705.40625</v>
+        <v>45715.40625</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -4158,24 +4200,24 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1339.099975585938</v>
+        <v>1362</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.900024414062</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.099975585938</v>
+        <v>1361.400024414062</v>
       </c>
       <c r="F8" t="n">
-        <v>1339.5</v>
+        <v>1361.699951171875</v>
       </c>
       <c r="G8" t="n">
-        <v>1545</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45705.40972222222</v>
+        <v>45715.40972222222</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4183,24 +4225,24 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1339.400024414062</v>
+        <v>1362.199951171875</v>
       </c>
       <c r="D9" t="n">
-        <v>1339.400024414062</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="E9" t="n">
-        <v>1338.599975585938</v>
+        <v>1361.800048828125</v>
       </c>
       <c r="F9" t="n">
-        <v>1339.099975585938</v>
+        <v>1362</v>
       </c>
       <c r="G9" t="n">
-        <v>1685</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45705.41319444445</v>
+        <v>45715.41319444445</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4208,24 +4250,24 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1338.800048828125</v>
+        <v>1361.900024414062</v>
       </c>
       <c r="D10" t="n">
-        <v>1339.5</v>
+        <v>1362.599975585938</v>
       </c>
       <c r="E10" t="n">
-        <v>1338.800048828125</v>
+        <v>1361.900024414062</v>
       </c>
       <c r="F10" t="n">
-        <v>1339.400024414062</v>
+        <v>1362.199951171875</v>
       </c>
       <c r="G10" t="n">
-        <v>1233</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45705.41666666666</v>
+        <v>45715.41666666666</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4233,24 +4275,24 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1338.099975585938</v>
+        <v>1361.900024414062</v>
       </c>
       <c r="D11" t="n">
-        <v>1338.800048828125</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="E11" t="n">
-        <v>1338.099975585938</v>
+        <v>1361.699951171875</v>
       </c>
       <c r="F11" t="n">
-        <v>1338.800048828125</v>
+        <v>1362.099975585938</v>
       </c>
       <c r="G11" t="n">
-        <v>2083</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45705.42013888889</v>
+        <v>45715.42013888889</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4258,24 +4300,24 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1338.599975585938</v>
+        <v>1361.900024414062</v>
       </c>
       <c r="D12" t="n">
-        <v>1338.800048828125</v>
+        <v>1362.400024414062</v>
       </c>
       <c r="E12" t="n">
-        <v>1338</v>
+        <v>1361.800048828125</v>
       </c>
       <c r="F12" t="n">
-        <v>1338.099975585938</v>
+        <v>1361.800048828125</v>
       </c>
       <c r="G12" t="n">
-        <v>1784</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45705.42361111111</v>
+        <v>45715.42361111111</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4283,24 +4325,24 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1340</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="D13" t="n">
-        <v>1340</v>
+        <v>1362.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1338.699951171875</v>
+        <v>1361.800048828125</v>
       </c>
       <c r="F13" t="n">
-        <v>1338.699951171875</v>
+        <v>1361.900024414062</v>
       </c>
       <c r="G13" t="n">
-        <v>2620</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45705.42708333334</v>
+        <v>45715.42708333334</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4308,24 +4350,24 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1339.599975585938</v>
+        <v>1361.699951171875</v>
       </c>
       <c r="D14" t="n">
-        <v>1340.5</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="E14" t="n">
-        <v>1339.300048828125</v>
+        <v>1361.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1340.099975585938</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="G14" t="n">
-        <v>1829</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45705.43055555555</v>
+        <v>45715.43055555555</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4333,24 +4375,24 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1339.800048828125</v>
+        <v>1362.099975585938</v>
       </c>
       <c r="D15" t="n">
-        <v>1339.900024414062</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="E15" t="n">
-        <v>1338.800048828125</v>
+        <v>1361.699951171875</v>
       </c>
       <c r="F15" t="n">
-        <v>1339.599975585938</v>
+        <v>1361.699951171875</v>
       </c>
       <c r="G15" t="n">
-        <v>968</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45705.43402777778</v>
+        <v>45715.43402777778</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -4358,24 +4400,24 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1340</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="D16" t="n">
-        <v>1340.900024414062</v>
+        <v>1362.300048828125</v>
       </c>
       <c r="E16" t="n">
-        <v>1339.699951171875</v>
+        <v>1361.800048828125</v>
       </c>
       <c r="F16" t="n">
-        <v>1339.900024414062</v>
+        <v>1362.099975585938</v>
       </c>
       <c r="G16" t="n">
-        <v>2344</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45705.4375</v>
+        <v>45715.4375</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -4383,24 +4425,24 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1340.400024414062</v>
+        <v>1361.699951171875</v>
       </c>
       <c r="D17" t="n">
-        <v>1340.900024414062</v>
+        <v>1362.400024414062</v>
       </c>
       <c r="E17" t="n">
-        <v>1340</v>
+        <v>1361.400024414062</v>
       </c>
       <c r="F17" t="n">
-        <v>1340</v>
+        <v>1362.400024414062</v>
       </c>
       <c r="G17" t="n">
-        <v>1294</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45705.44097222222</v>
+        <v>45715.44097222222</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -4408,24 +4450,24 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1339.699951171875</v>
+        <v>1362.099975585938</v>
       </c>
       <c r="D18" t="n">
-        <v>1340.5</v>
+        <v>1362.199951171875</v>
       </c>
       <c r="E18" t="n">
-        <v>1339.199951171875</v>
+        <v>1361.199951171875</v>
       </c>
       <c r="F18" t="n">
-        <v>1340.5</v>
+        <v>1361.699951171875</v>
       </c>
       <c r="G18" t="n">
-        <v>1581</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45705.44444444445</v>
+        <v>45715.44444444445</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4433,24 +4475,24 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1339.800048828125</v>
+        <v>1361.599975585938</v>
       </c>
       <c r="D19" t="n">
-        <v>1340</v>
+        <v>1362.099975585938</v>
       </c>
       <c r="E19" t="n">
-        <v>1339.300048828125</v>
+        <v>1361.199951171875</v>
       </c>
       <c r="F19" t="n">
-        <v>1339.599975585938</v>
+        <v>1362.099975585938</v>
       </c>
       <c r="G19" t="n">
-        <v>986</v>
+        <v>721</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45705.44791666666</v>
+        <v>45715.44791666666</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4458,24 +4500,24 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1340.400024414062</v>
+        <v>1361.300048828125</v>
       </c>
       <c r="D20" t="n">
-        <v>1340.400024414062</v>
+        <v>1361.599975585938</v>
       </c>
       <c r="E20" t="n">
-        <v>1339.400024414062</v>
+        <v>1360.900024414062</v>
       </c>
       <c r="F20" t="n">
-        <v>1339.699951171875</v>
+        <v>1361.599975585938</v>
       </c>
       <c r="G20" t="n">
-        <v>955</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45705.45138888889</v>
+        <v>45715.45138888889</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4483,24 +4525,24 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1340.900024414062</v>
+        <v>1361.300048828125</v>
       </c>
       <c r="D21" t="n">
-        <v>1341.800048828125</v>
+        <v>1361.5</v>
       </c>
       <c r="E21" t="n">
-        <v>1340.199951171875</v>
+        <v>1361</v>
       </c>
       <c r="F21" t="n">
-        <v>1340.300048828125</v>
+        <v>1361.199951171875</v>
       </c>
       <c r="G21" t="n">
-        <v>4211</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45705.45486111111</v>
+        <v>45715.45486111111</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4508,24 +4550,24 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1340.400024414062</v>
+        <v>1360</v>
       </c>
       <c r="D22" t="n">
-        <v>1341.099975585938</v>
+        <v>1361.300048828125</v>
       </c>
       <c r="E22" t="n">
-        <v>1340.400024414062</v>
+        <v>1360</v>
       </c>
       <c r="F22" t="n">
-        <v>1340.900024414062</v>
+        <v>1361.199951171875</v>
       </c>
       <c r="G22" t="n">
-        <v>1259</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45705.45833333334</v>
+        <v>45715.45833333334</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4533,24 +4575,24 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1341.5</v>
+        <v>1359.900024414062</v>
       </c>
       <c r="D23" t="n">
-        <v>1341.699951171875</v>
+        <v>1360.099975585938</v>
       </c>
       <c r="E23" t="n">
-        <v>1340.400024414062</v>
+        <v>1359.199951171875</v>
       </c>
       <c r="F23" t="n">
-        <v>1340.599975585938</v>
+        <v>1360</v>
       </c>
       <c r="G23" t="n">
-        <v>1826</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45705.46180555555</v>
+        <v>45715.46180555555</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4558,24 +4600,24 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1341.5</v>
+        <v>1358.599975585938</v>
       </c>
       <c r="D24" t="n">
-        <v>1341.699951171875</v>
+        <v>1359.900024414062</v>
       </c>
       <c r="E24" t="n">
-        <v>1340.800048828125</v>
+        <v>1358.300048828125</v>
       </c>
       <c r="F24" t="n">
-        <v>1341.699951171875</v>
+        <v>1359.900024414062</v>
       </c>
       <c r="G24" t="n">
-        <v>1613</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45705.46527777778</v>
+        <v>45715.46527777778</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4583,24 +4625,24 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1341.300048828125</v>
+        <v>1358.199951171875</v>
       </c>
       <c r="D25" t="n">
-        <v>1341.699951171875</v>
+        <v>1358.599975585938</v>
       </c>
       <c r="E25" t="n">
-        <v>1341.199951171875</v>
+        <v>1357.199951171875</v>
       </c>
       <c r="F25" t="n">
-        <v>1341.5</v>
+        <v>1358.599975585938</v>
       </c>
       <c r="G25" t="n">
-        <v>1571</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45705.46875</v>
+        <v>45715.46875</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4608,24 +4650,24 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1340.699951171875</v>
+        <v>1357.599975585938</v>
       </c>
       <c r="D26" t="n">
-        <v>1341.599975585938</v>
+        <v>1358.5</v>
       </c>
       <c r="E26" t="n">
-        <v>1340.199951171875</v>
+        <v>1357.599975585938</v>
       </c>
       <c r="F26" t="n">
-        <v>1341.400024414062</v>
+        <v>1358.199951171875</v>
       </c>
       <c r="G26" t="n">
-        <v>1814</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45705.47222222222</v>
+        <v>45715.47222222222</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4633,24 +4675,24 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1341.400024414062</v>
+        <v>1357.800048828125</v>
       </c>
       <c r="D27" t="n">
-        <v>1341.599975585938</v>
+        <v>1358</v>
       </c>
       <c r="E27" t="n">
-        <v>1340.5</v>
+        <v>1357.300048828125</v>
       </c>
       <c r="F27" t="n">
-        <v>1340.800048828125</v>
+        <v>1357.699951171875</v>
       </c>
       <c r="G27" t="n">
-        <v>1367</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45705.47569444445</v>
+        <v>45715.47569444445</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4658,24 +4700,24 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1341.5</v>
+        <v>1356</v>
       </c>
       <c r="D28" t="n">
-        <v>1342</v>
+        <v>1357.900024414062</v>
       </c>
       <c r="E28" t="n">
-        <v>1341.099975585938</v>
+        <v>1355.800048828125</v>
       </c>
       <c r="F28" t="n">
-        <v>1341.400024414062</v>
+        <v>1357.699951171875</v>
       </c>
       <c r="G28" t="n">
-        <v>2322</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45705.54166666666</v>
+        <v>45715.54166666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4683,24 +4725,24 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1341.199951171875</v>
+        <v>1352.800048828125</v>
       </c>
       <c r="D29" t="n">
-        <v>1341.800048828125</v>
+        <v>1356.199951171875</v>
       </c>
       <c r="E29" t="n">
-        <v>1341.099975585938</v>
+        <v>1352.800048828125</v>
       </c>
       <c r="F29" t="n">
-        <v>1341.300048828125</v>
+        <v>1355.5</v>
       </c>
       <c r="G29" t="n">
-        <v>1200</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45705.54513888889</v>
+        <v>45715.54513888889</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4708,24 +4750,24 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1341.5</v>
+        <v>1351.400024414062</v>
       </c>
       <c r="D30" t="n">
-        <v>1341.599975585938</v>
+        <v>1352.800048828125</v>
       </c>
       <c r="E30" t="n">
-        <v>1341.099975585938</v>
+        <v>1351.099975585938</v>
       </c>
       <c r="F30" t="n">
-        <v>1341.099975585938</v>
+        <v>1352.800048828125</v>
       </c>
       <c r="G30" t="n">
-        <v>1003</v>
+        <v>9233</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45705.54861111111</v>
+        <v>45715.54861111111</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4733,24 +4775,24 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1341.599975585938</v>
+        <v>1352.5</v>
       </c>
       <c r="D31" t="n">
-        <v>1341.800048828125</v>
+        <v>1352.699951171875</v>
       </c>
       <c r="E31" t="n">
-        <v>1341.300048828125</v>
+        <v>1350.800048828125</v>
       </c>
       <c r="F31" t="n">
-        <v>1341.400024414062</v>
+        <v>1351.400024414062</v>
       </c>
       <c r="G31" t="n">
-        <v>1142</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45705.55208333334</v>
+        <v>45715.55208333334</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4758,24 +4800,24 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1342</v>
+        <v>1352.300048828125</v>
       </c>
       <c r="D32" t="n">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="E32" t="n">
-        <v>1341.099975585938</v>
+        <v>1352.300048828125</v>
       </c>
       <c r="F32" t="n">
-        <v>1341.5</v>
+        <v>1352.599975585938</v>
       </c>
       <c r="G32" t="n">
-        <v>1977</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45705.55555555555</v>
+        <v>45715.55555555555</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4783,24 +4825,24 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1341.400024414062</v>
+        <v>1352.5</v>
       </c>
       <c r="D33" t="n">
-        <v>1342.099975585938</v>
+        <v>1353.099975585938</v>
       </c>
       <c r="E33" t="n">
-        <v>1341.199951171875</v>
+        <v>1352.099975585938</v>
       </c>
       <c r="F33" t="n">
-        <v>1342</v>
+        <v>1352.400024414062</v>
       </c>
       <c r="G33" t="n">
-        <v>1923</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45705.55902777778</v>
+        <v>45715.55902777778</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4808,24 +4850,24 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1340.5</v>
+        <v>1353.099975585938</v>
       </c>
       <c r="D34" t="n">
-        <v>1341.400024414062</v>
+        <v>1353.400024414062</v>
       </c>
       <c r="E34" t="n">
-        <v>1339.800048828125</v>
+        <v>1352.099975585938</v>
       </c>
       <c r="F34" t="n">
-        <v>1341.400024414062</v>
+        <v>1352.5</v>
       </c>
       <c r="G34" t="n">
-        <v>2866</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45705.5625</v>
+        <v>45715.5625</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4833,24 +4875,24 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1340.5</v>
+        <v>1353.599975585938</v>
       </c>
       <c r="D35" t="n">
-        <v>1340.5</v>
+        <v>1353.599975585938</v>
       </c>
       <c r="E35" t="n">
-        <v>1339.699951171875</v>
+        <v>1352.699951171875</v>
       </c>
       <c r="F35" t="n">
-        <v>1340.5</v>
+        <v>1353.199951171875</v>
       </c>
       <c r="G35" t="n">
-        <v>1339</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45705.56597222222</v>
+        <v>45715.56597222222</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4858,24 +4900,24 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1339.900024414062</v>
+        <v>1353.900024414062</v>
       </c>
       <c r="D36" t="n">
-        <v>1341.300048828125</v>
+        <v>1353.900024414062</v>
       </c>
       <c r="E36" t="n">
-        <v>1339.800048828125</v>
+        <v>1353</v>
       </c>
       <c r="F36" t="n">
-        <v>1340.599975585938</v>
+        <v>1353.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1998</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45705.56944444445</v>
+        <v>45715.56944444445</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4883,24 +4925,24 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1341.300048828125</v>
+        <v>1353.099975585938</v>
       </c>
       <c r="D37" t="n">
-        <v>1341.800048828125</v>
+        <v>1354.900024414062</v>
       </c>
       <c r="E37" t="n">
-        <v>1339.5</v>
+        <v>1353.099975585938</v>
       </c>
       <c r="F37" t="n">
-        <v>1339.800048828125</v>
+        <v>1353.900024414062</v>
       </c>
       <c r="G37" t="n">
-        <v>3782</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45705.57291666666</v>
+        <v>45715.57291666666</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4908,24 +4950,24 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1341</v>
+        <v>1355</v>
       </c>
       <c r="D38" t="n">
-        <v>1341.800048828125</v>
+        <v>1355</v>
       </c>
       <c r="E38" t="n">
-        <v>1340.599975585938</v>
+        <v>1353.199951171875</v>
       </c>
       <c r="F38" t="n">
-        <v>1341.199951171875</v>
+        <v>1353.300048828125</v>
       </c>
       <c r="G38" t="n">
-        <v>2636</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45705.57638888889</v>
+        <v>45715.57638888889</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4933,24 +4975,24 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1340.199951171875</v>
+        <v>1354.599975585938</v>
       </c>
       <c r="D39" t="n">
-        <v>1341.5</v>
+        <v>1356.099975585938</v>
       </c>
       <c r="E39" t="n">
-        <v>1340.099975585938</v>
+        <v>1354.599975585938</v>
       </c>
       <c r="F39" t="n">
-        <v>1341</v>
+        <v>1355</v>
       </c>
       <c r="G39" t="n">
-        <v>1749</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45705.57986111111</v>
+        <v>45715.57986111111</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4958,24 +5000,24 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1340.900024414062</v>
+        <v>1354.599975585938</v>
       </c>
       <c r="D40" t="n">
-        <v>1341</v>
+        <v>1355.699951171875</v>
       </c>
       <c r="E40" t="n">
-        <v>1340</v>
+        <v>1354.300048828125</v>
       </c>
       <c r="F40" t="n">
-        <v>1340.199951171875</v>
+        <v>1354.699951171875</v>
       </c>
       <c r="G40" t="n">
-        <v>2031</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45705.58333333334</v>
+        <v>45715.58333333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4983,24 +5025,24 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1341.300048828125</v>
+        <v>1354.800048828125</v>
       </c>
       <c r="D41" t="n">
-        <v>1341.5</v>
+        <v>1355.5</v>
       </c>
       <c r="E41" t="n">
-        <v>1340.400024414062</v>
+        <v>1354.199951171875</v>
       </c>
       <c r="F41" t="n">
-        <v>1340.699951171875</v>
+        <v>1354.599975585938</v>
       </c>
       <c r="G41" t="n">
-        <v>2203</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45705.58680555555</v>
+        <v>45715.58680555555</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5008,24 +5050,24 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1340.5</v>
+        <v>1356.599975585938</v>
       </c>
       <c r="D42" t="n">
-        <v>1341.699951171875</v>
+        <v>1356.800048828125</v>
       </c>
       <c r="E42" t="n">
-        <v>1340.199951171875</v>
+        <v>1354.199951171875</v>
       </c>
       <c r="F42" t="n">
-        <v>1341.199951171875</v>
+        <v>1354.800048828125</v>
       </c>
       <c r="G42" t="n">
-        <v>2526</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45705.59027777778</v>
+        <v>45715.59027777778</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5033,24 +5075,24 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1340</v>
+        <v>1358.400024414062</v>
       </c>
       <c r="D43" t="n">
-        <v>1341.199951171875</v>
+        <v>1358.400024414062</v>
       </c>
       <c r="E43" t="n">
-        <v>1339.900024414062</v>
+        <v>1356.300048828125</v>
       </c>
       <c r="F43" t="n">
-        <v>1340.5</v>
+        <v>1356.699951171875</v>
       </c>
       <c r="G43" t="n">
-        <v>3084</v>
+        <v>9960</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45705.59375</v>
+        <v>45715.59375</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5058,24 +5100,24 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1339</v>
+        <v>1359.599975585938</v>
       </c>
       <c r="D44" t="n">
-        <v>1340.199951171875</v>
+        <v>1361</v>
       </c>
       <c r="E44" t="n">
-        <v>1338.900024414062</v>
+        <v>1358.099975585938</v>
       </c>
       <c r="F44" t="n">
-        <v>1340.099975585938</v>
+        <v>1358.199951171875</v>
       </c>
       <c r="G44" t="n">
-        <v>5168</v>
+        <v>11984</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45705.59722222222</v>
+        <v>45715.59722222222</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5083,24 +5125,24 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1337</v>
+        <v>1361.800048828125</v>
       </c>
       <c r="D45" t="n">
-        <v>1338.900024414062</v>
+        <v>1362.5</v>
       </c>
       <c r="E45" t="n">
-        <v>1336.199951171875</v>
+        <v>1359.5</v>
       </c>
       <c r="F45" t="n">
-        <v>1338.900024414062</v>
+        <v>1359.5</v>
       </c>
       <c r="G45" t="n">
-        <v>10190</v>
+        <v>9505</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45705.60069444445</v>
+        <v>45715.60069444445</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5108,24 +5150,24 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1336</v>
+        <v>1362.5</v>
       </c>
       <c r="D46" t="n">
-        <v>1337.199951171875</v>
+        <v>1362.5</v>
       </c>
       <c r="E46" t="n">
-        <v>1335.699951171875</v>
+        <v>1360.699951171875</v>
       </c>
       <c r="F46" t="n">
-        <v>1337</v>
+        <v>1361.800048828125</v>
       </c>
       <c r="G46" t="n">
-        <v>7405</v>
+        <v>7339</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45705.60416666666</v>
+        <v>45715.60416666666</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5133,24 +5175,24 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1336</v>
+        <v>1361.699951171875</v>
       </c>
       <c r="D47" t="n">
-        <v>1336</v>
+        <v>1362.5</v>
       </c>
       <c r="E47" t="n">
-        <v>1336</v>
+        <v>1361.699951171875</v>
       </c>
       <c r="F47" t="n">
-        <v>1336</v>
+        <v>1362.5</v>
       </c>
       <c r="G47" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45705.60763888889</v>
+        <v>45715.60763888889</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
@@ -5161,7 +5203,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45705.61111111111</v>
+        <v>45715.61111111111</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
@@ -5172,7 +5214,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45705.61458333334</v>
+        <v>45715.61458333334</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5180,24 +5222,24 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1335.300048828125</v>
+        <v>1364</v>
       </c>
       <c r="D50" t="n">
-        <v>1335.300048828125</v>
+        <v>1364</v>
       </c>
       <c r="E50" t="n">
-        <v>1335.300048828125</v>
+        <v>1364</v>
       </c>
       <c r="F50" t="n">
-        <v>1335.300048828125</v>
+        <v>1364</v>
       </c>
       <c r="G50" t="n">
-        <v>4677</v>
+        <v>7313</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45705.61805555555</v>
+        <v>45715.61805555555</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
@@ -5208,7 +5250,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45705.62152777778</v>
+        <v>45715.62152777778</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
@@ -5255,7 +5297,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37334</v>
+        <v>42624</v>
       </c>
     </row>
     <row r="3">
@@ -5265,7 +5307,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120605</v>
+        <v>170339</v>
       </c>
     </row>
     <row r="4">
@@ -5275,7 +5317,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.2900390625</v>
+        <v>0.3800048828125</v>
       </c>
     </row>
     <row r="5">
@@ -5295,7 +5337,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1342</v>
+        <v>1350.099975585938</v>
       </c>
     </row>
     <row r="7">
@@ -5305,7 +5347,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1342.099975585938</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="8">
@@ -5315,7 +5357,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1335.300048828125</v>
+        <v>1350.099975585938</v>
       </c>
     </row>
     <row r="9">
@@ -5325,7 +5367,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1338.700012207031</v>
+        <v>1358.549987792969</v>
       </c>
     </row>
   </sheetData>
@@ -5376,13 +5418,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C2" t="n">
-        <v>497895500</v>
+        <v>500649400</v>
       </c>
       <c r="D2" t="n">
-        <v>7745.159164072523</v>
+        <v>11128.1244480278</v>
       </c>
     </row>
     <row r="3">
@@ -5392,13 +5434,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C3" t="n">
-        <v>272006100</v>
+        <v>290553200</v>
       </c>
       <c r="D3" t="n">
-        <v>8161.549239959432</v>
+        <v>6436.330222289203</v>
       </c>
     </row>
     <row r="4">
@@ -5408,13 +5450,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>60004500</v>
+        <v>108994100</v>
       </c>
       <c r="D4" t="n">
-        <v>1196.77514981339</v>
+        <v>1829.988906982207</v>
       </c>
     </row>
   </sheetData>
@@ -5490,18 +5532,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.364646839755036</v>
+        <v>1.13808201640444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.522547399314264</v>
+        <v>1.056204311817956</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4048901335882394</v>
+        <v>0.3937423362537673</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cao</t>
+          <t>Trung bình</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -5521,20 +5563,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8363139616542727</v>
+        <v>0.5735522321732555</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1473496499116256</v>
+        <v>0.335391033040046</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09266333222134085</v>
+        <v>0.08242561153808388</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trung bình</t>
+          <t>Thấp</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -5546,7 +5588,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5556,20 +5598,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.150201763893818</v>
+        <v>1.322489245090114</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04696119867036317</v>
+        <v>1.327350523913705</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01142172499727706</v>
+        <v>0.3135842667577259</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trung bình</t>
+          <t>Cao</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -5581,7 +5623,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5591,20 +5633,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.420033316460962</v>
+        <v>0.9229269752558872</v>
       </c>
       <c r="C5" t="n">
-        <v>2.184191805297826</v>
+        <v>0.3961086721303734</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4637060976723106</v>
+        <v>0.89225072601619</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rất cao</t>
+          <t>Trung bình</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -5616,7 +5658,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5626,16 +5668,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.018305082068838</v>
+        <v>1.773431063343406</v>
       </c>
       <c r="C6" t="n">
-        <v>2.920375301168129</v>
+        <v>-0.5989961926252697</v>
       </c>
       <c r="D6" t="n">
-        <v>0.914493397831509</v>
+        <v>-0.02330016004669027</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -5651,7 +5693,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -5661,20 +5703,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6500266744013798</v>
+        <v>2.406618303067103</v>
       </c>
       <c r="C7" t="n">
-        <v>1.645339607701792</v>
+        <v>15.90334643698648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5245751864067523</v>
+        <v>3.082724530244033</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Thấp</t>
+          <t>Rất cao</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -5686,7 +5728,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5696,20 +5738,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.364208598043419</v>
+        <v>1.748178919345874</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8895245859177644</v>
+        <v>0.3289038402561085</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4507392531682399</v>
+        <v>-0.08867713194836668</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cao</t>
+          <t>Rất cao</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -5721,7 +5763,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -5731,20 +5773,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.268068801865116</v>
+        <v>1.000386916164371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2459824997299012</v>
+        <v>0.472228842746921</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1742139169693469</v>
+        <v>0.06375640289125169</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cao</t>
+          <t>Trung bình</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -5766,20 +5808,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.290554919826357</v>
+        <v>1.165510045318153</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.470411597311128</v>
+        <v>-1.242552293485288</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1917568465020532</v>
+        <v>-0.2900711716783199</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cao</t>
+          <t>Trung bình</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -5801,16 +5843,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.07338538159465</v>
+        <v>0.9961519550882252</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1504115346442501</v>
+        <v>0.3412434331088386</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.005169435977603484</v>
+        <v>0.03341639472488106</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5826,7 +5868,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -5836,16 +5878,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7251771901753866</v>
+        <v>0.7903325291421701</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03460614398687856</v>
+        <v>0.01679214906253753</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0840066941187648</v>
+        <v>-0.001604894861459938</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -5861,7 +5903,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -5871,20 +5913,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.916405312718197</v>
+        <v>0.8956920323876175</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2179002141585232</v>
+        <v>0.2127153780182441</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6821791065717508</v>
+        <v>0.02388897733717204</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rất cao</t>
+          <t>Trung bình</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -5896,7 +5938,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -5906,20 +5948,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9945531737177434</v>
+        <v>0.7869520967142994</v>
       </c>
       <c r="C14" t="n">
-        <v>4.537864290724007</v>
+        <v>-0.03019232858602883</v>
       </c>
       <c r="D14" t="n">
-        <v>2.179337289397563</v>
+        <v>-0.5836399024636743</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trung bình</t>
+          <t>Thấp</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -5931,7 +5973,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -5941,20 +5983,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.027421567356187</v>
+        <v>1.760271624784284</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5294439234670651</v>
+        <v>0.3933798216569807</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.09890402158959187</v>
+        <v>-0.05964785446363833</v>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trung bình</t>
+          <t>Rất cao</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -5966,7 +6008,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -5976,16 +6018,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9355084032607635</v>
+        <v>0.8170991022760324</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009007202899002552</v>
+        <v>0.7106362947457162</v>
       </c>
       <c r="D16" t="n">
-        <v>0.15510560535248</v>
+        <v>0.1811733684515132</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -6001,7 +6043,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -6011,20 +6053,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.806060049792912</v>
+        <v>0.765120513454186</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7570661620384939</v>
+        <v>0.2838005719830644</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01356943958683998</v>
+        <v>0.07519187673425189</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trung bình</t>
+          <t>Thấp</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -6036,7 +6078,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -6046,20 +6088,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.836663113577762</v>
+        <v>1.353126688958443</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4020686696143175</v>
+        <v>0.7484993630198234</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3046487339490659</v>
+        <v>0.1411484066979187</v>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trung bình</t>
+          <t>Cao</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -6071,7 +6113,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -6081,16 +6123,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.037467325007261</v>
+        <v>0.8699337492725363</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1781312300550719</v>
+        <v>-0.01935295987977551</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2576832188874348</v>
+        <v>-0.01178733217564678</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -6106,7 +6148,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -6116,16 +6158,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.466465854414029</v>
+        <v>1.477776290102448</v>
       </c>
       <c r="C20" t="n">
-        <v>0.053938649277221</v>
+        <v>1.145662547665408</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0914150048365087</v>
+        <v>0.354682154280289</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -6141,7 +6183,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -6151,20 +6193,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.378657376088654</v>
+        <v>1.008650550501389</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1015826628002755</v>
+        <v>0.5996217835419114</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1333866805096574</v>
+        <v>0.1871969924154467</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cao</t>
+          <t>Trung bình</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -6176,7 +6218,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -6186,16 +6228,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8540061680612383</v>
+        <v>1.074011320245067</v>
       </c>
       <c r="C22" t="n">
-        <v>-5.011972236582985e-05</v>
+        <v>0.05052824490743883</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6291869739932553</v>
+        <v>0.0979633409475327</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -6211,7 +6253,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -6221,20 +6263,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.683888660676575</v>
+        <v>0.9403292516120628</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.08387803518651009</v>
+        <v>-0.006991581205498592</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5632291426585787</v>
+        <v>-0.07538721041939045</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rất cao</t>
+          <t>Trung bình</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -6246,7 +6288,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -6256,20 +6298,20 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.408258173840874</v>
+        <v>0.9207645616749039</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2063289759448396</v>
+        <v>-0.2853320590851632</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1756484539434092</v>
+        <v>-0.1359739727121058</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cao</t>
+          <t>Trung bình</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -6281,7 +6323,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -6291,16 +6333,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.086919600054787</v>
+        <v>1.01551739296076</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.06256726378449531</v>
+        <v>0.1048696488400293</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1726106988631369</v>
+        <v>-0.09157509231860672</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -6316,7 +6358,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -6326,20 +6368,20 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.560007143994941</v>
+        <v>1.286929181229639</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9510856978147421</v>
+        <v>1.840807576856181</v>
       </c>
       <c r="D26" t="n">
-        <v>0.317096622461716</v>
+        <v>0.6604353539028209</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rất cao</t>
+          <t>Cao</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -6359,20 +6401,20 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.332640037061771</v>
+        <v>0.9704233706222749</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.07891051706637454</v>
+        <v>0.1520337070397518</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5086769880972966</v>
+        <v>-0.05275723190520692</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cao</t>
+          <t>Trung bình</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -6392,16 +6434,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.103706091602391</v>
+        <v>0.9661836605442492</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06215688300085406</v>
+        <v>0.7344661806936966</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1763552920358103</v>
+        <v>0.2345251382914275</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -6425,20 +6467,20 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.401444024757006</v>
+        <v>0.9499108239981866</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2102323756933385</v>
+        <v>-0.08524551493765828</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2358760229659472</v>
+        <v>-0.08786454283400773</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cao</t>
+          <t>Trung bình</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -6458,13 +6500,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8355401184877578</v>
+        <v>0.9575448751865044</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.8984086297484877</v>
+        <v>0.03859198140669873</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2175216473641773</v>
+        <v>0.1076954158794687</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -6491,16 +6533,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.49615658968825</v>
+        <v>1.205075498180737</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1958029416466587</v>
+        <v>0.752130465032915</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1567564664401974</v>
+        <v>0.246835662061839</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -6524,20 +6566,20 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.654091143879832</v>
+        <v>1.203125182449772</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9017579543025743</v>
+        <v>1.211592003350338</v>
       </c>
       <c r="D32" t="n">
-        <v>0.41884278578707</v>
+        <v>0.3531595268404725</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rất cao</t>
+          <t>Cao</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -6557,16 +6599,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.085860882530769</v>
+        <v>0.88092772204625</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9635407930265776</v>
+        <v>0.5763207345775633</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5598617708895139</v>
+        <v>0.2022435100723</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -6616,11 +6658,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47.89156626506024</v>
+        <v>63.85542168674698</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trung lập</t>
+          <t>Tích cực</t>
         </is>
       </c>
     </row>
@@ -6693,35 +6735,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCC</t>
+          <t>DL1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vật liệu xây dựng</t>
+          <t>Vận tải</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hiệu suất A</t>
+          <t>Hiệu suất C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SMALLCAP</t>
+          <t>PENNY</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.199999809265137</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09333330790201821</v>
+        <v>0.09615384968074836</v>
       </c>
       <c r="G2" t="n">
-        <v>84.42612567853368</v>
+        <v>55.46119817186659</v>
       </c>
       <c r="H2" t="n">
-        <v>8.207181606819944</v>
+        <v>5.241669261912177</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -6732,35 +6774,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CTP</t>
+          <t>EVG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thực phẩm</t>
+          <t>Vật liệu xây dựng</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hiệu suất C</t>
+          <t>Hiệu suất A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PENNY</t>
+          <t>SMALLCAP</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34.90000152587891</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09748435104380548</v>
+        <v>0.06853583364354976</v>
       </c>
       <c r="G3" t="n">
-        <v>45.74296909588875</v>
+        <v>37.7662480450566</v>
       </c>
       <c r="H3" t="n">
-        <v>3.974214191605496</v>
+        <v>5.134407935523869</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -6771,17 +6813,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MZG</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Khoáng sản</t>
+          <t>Công nghệ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hiệu suất B</t>
+          <t>Hiệu suất C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6790,16 +6832,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8.800000190734863</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1428571959373472</v>
+        <v>0.06944444628409396</v>
       </c>
       <c r="G4" t="n">
-        <v>33.87972200131508</v>
+        <v>37.07803476495442</v>
       </c>
       <c r="H4" t="n">
-        <v>1.843208230139074</v>
+        <v>4.943888193575303</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -6810,35 +6852,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VTO</t>
+          <t>HSG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vận tải</t>
+          <t>Thép</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hiệu suất C</t>
+          <t>Hiệu suất A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SMALLCAP</t>
+          <t>MIDCAP</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16.60000038146973</v>
+        <v>19.14999961853027</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06752412719328982</v>
+        <v>0.06983240372284616</v>
       </c>
       <c r="G5" t="n">
-        <v>31.44260504338142</v>
+        <v>34.9514018518604</v>
       </c>
       <c r="H5" t="n">
-        <v>4.297329653154201</v>
+        <v>4.63380347558644</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -6849,12 +6891,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CDC</t>
+          <t>NKG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Xây dựng</t>
+          <t>Thép</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6864,20 +6906,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PENNY</t>
+          <t>MIDCAP</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.95000076293945</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06887756914260312</v>
+        <v>0.06920415316260509</v>
       </c>
       <c r="G6" t="n">
-        <v>25.11040400187073</v>
+        <v>27.21125749062863</v>
       </c>
       <c r="H6" t="n">
-        <v>3.299225663716814</v>
+        <v>3.629060236222511</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -6888,12 +6930,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EVF</t>
+          <t>GDA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Công ty tài chính</t>
+          <t>Thép</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6907,16 +6949,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10.94999980926514</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06829266431854997</v>
+        <v>0.06122448979591844</v>
       </c>
       <c r="G7" t="n">
-        <v>24.88918438180581</v>
+        <v>23.69486647190599</v>
       </c>
       <c r="H7" t="n">
-        <v>3.205642537757659</v>
+        <v>7.562831253205676</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -6927,35 +6969,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>HNG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chứng khoán</t>
+          <t>Thực phẩm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hiệu suất A</t>
+          <t>Hiệu suất C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MIDCAP</t>
+          <t>SMALLCAP</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.75</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05911334029750503</v>
+        <v>0.08219176561037433</v>
       </c>
       <c r="G8" t="n">
-        <v>22.74711594840241</v>
+        <v>23.3005494329236</v>
       </c>
       <c r="H8" t="n">
-        <v>5.019277428029792</v>
+        <v>2.648219571261996</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -6966,35 +7008,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ITQ</t>
+          <t>SMC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Khoáng sản</t>
+          <t>Thép</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hiệu suất B</t>
+          <t>Hiệu suất A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PENNY</t>
+          <t>SMALLCAP</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.099999904632568</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0689654492027858</v>
+        <v>0.0684039227079567</v>
       </c>
       <c r="G9" t="n">
-        <v>19.85461632865955</v>
+        <v>23.15053046930435</v>
       </c>
       <c r="H9" t="n">
-        <v>2.730257972994273</v>
+        <v>3.163480392156863</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -7005,7 +7047,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SGR</t>
+          <t>NHA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7024,16 +7066,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.45000076293945</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07000002179827014</v>
+        <v>0.06153847621037412</v>
       </c>
       <c r="G10" t="n">
-        <v>17.95313045661568</v>
+        <v>21.81047683781053</v>
       </c>
       <c r="H10" t="n">
-        <v>2.396852403232667</v>
+        <v>3.315521432154018</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -7044,12 +7086,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AAS</t>
+          <t>NDN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chứng khoán</t>
+          <t>Bất động sản</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7063,16 +7105,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9.100000381469727</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05813953230482882</v>
+        <v>0.04301071078780994</v>
       </c>
       <c r="G11" t="n">
-        <v>17.43207945671621</v>
+        <v>21.6680836660543</v>
       </c>
       <c r="H11" t="n">
-        <v>3.985325767951477</v>
+        <v>4.798816568047338</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -7083,7 +7125,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7098,20 +7140,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MIDCAP</t>
+          <t>SMALLCAP</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43.59999847412109</v>
+        <v>4.199999809265137</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.108384517103807</v>
+        <v>-0.0561797776888634</v>
       </c>
       <c r="G12" t="n">
-        <v>-25.91374776670006</v>
+        <v>-13.32810197463199</v>
       </c>
       <c r="H12" t="n">
-        <v>2.916751227828064</v>
+        <v>2.589144709500457</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -7122,12 +7164,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hoá chất</t>
+          <t>Công nghiệp</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7137,20 +7179,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SMALLCAP</t>
+          <t>MIDCAP</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.79999923706055</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04157552503630846</v>
+        <v>-0.04035872866912737</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.744494479881348</v>
+        <v>-5.460818746346184</v>
       </c>
       <c r="H13" t="n">
-        <v>2.132538202283957</v>
+        <v>1.742460796139928</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -7161,35 +7203,35 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VC2</t>
+          <t>VCB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Xây dựng</t>
+          <t>Ngân hàng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hiệu suất A</t>
+          <t>Hiệu suất C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SMALLCAP</t>
+          <t>LARGECAP</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.899999618530273</v>
+        <v>94</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04301081333343315</v>
+        <v>0.01841816784435979</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.998322251505308</v>
+        <v>-5.338591197113913</v>
       </c>
       <c r="H14" t="n">
-        <v>1.703782851572752</v>
+        <v>2.856688404644505</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -7200,17 +7242,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HMR</t>
+          <t>HIO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vật liệu xây dựng</t>
+          <t>DV hạ tầng</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hiệu suất A</t>
+          <t>Hiệu suất D</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -7219,16 +7261,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.30000019073486</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.08917195130818301</v>
+        <v>-0.03000001907348637</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.992422909937107</v>
+        <v>-4.593024786225679</v>
       </c>
       <c r="H15" t="n">
-        <v>0.812624254473161</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -7239,35 +7281,35 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CTD</t>
+          <t>TNH</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Xây dựng</t>
+          <t>Y tế</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hiệu suất A</t>
+          <t>Hiệu suất D</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MIDCAP</t>
+          <t>SMALLCAP</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>88.59999847412109</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0380021721822662</v>
+        <v>-0.03291137309014047</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.894431594006827</v>
+        <v>-3.370792018153639</v>
       </c>
       <c r="H16" t="n">
-        <v>1.947957400782095</v>
+        <v>1.268141954192885</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -7278,35 +7320,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HVN</t>
+          <t>BCG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Du lịch và DV</t>
+          <t>Công ty tài chính</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hiệu suất D</t>
+          <t>Hiệu suất A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LARGECAP</t>
+          <t>SMALLCAP</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.5</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02229844346608767</v>
+        <v>-0.02385006289864033</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.211743454461351</v>
+        <v>-2.688272396227766</v>
       </c>
       <c r="H17" t="n">
-        <v>2.262782451360654</v>
+        <v>1.85343269751475</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -7317,35 +7359,35 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SCS</t>
+          <t>TCI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vận tải</t>
+          <t>Chứng khoán</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hiệu suất C</t>
+          <t>Hiệu suất A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MIDCAP</t>
+          <t>SMALLCAP</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>75.19999694824219</v>
+        <v>9.760000228881836</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02842383119205938</v>
+        <v>-0.02204402038531506</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.983843753263917</v>
+        <v>-2.54053657925952</v>
       </c>
       <c r="H18" t="n">
-        <v>2.612672811059908</v>
+        <v>1.290071584189231</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -7356,35 +7398,35 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ACV</t>
+          <t>OGC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Công nghiệp</t>
+          <t>Bất động sản</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hiệu suất B</t>
+          <t>Hiệu suất A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LARGECAP</t>
+          <t>SMALLCAP</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106.8000030517578</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.04897595592642245</v>
+        <v>0.03738323171353986</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.128475797648278</v>
+        <v>-2.410362721619576</v>
       </c>
       <c r="H19" t="n">
-        <v>1.228502242646047</v>
+        <v>5.888099025651223</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -7395,35 +7437,35 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PSH</t>
+          <t>DSE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dầu khí</t>
+          <t>Chứng khoán</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hiệu suất B</t>
+          <t>Hiệu suất A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PENNY</t>
+          <t>MIDCAP</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.759999990463257</v>
+        <v>26.95000076293945</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02127657595741339</v>
+        <v>-0.01999997225674721</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.607552541935306</v>
+        <v>-1.450809274681016</v>
       </c>
       <c r="H20" t="n">
-        <v>1.737209915611814</v>
+        <v>1.583036581417935</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -7434,35 +7476,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>EVF</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Thực phẩm</t>
+          <t>Công ty tài chính</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hiệu suất C</t>
+          <t>Hiệu suất A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LARGECAP</t>
+          <t>SMALLCAP</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>66.40000152587891</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02496324502691738</v>
+        <v>-0.02666668362087676</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.460131708542985</v>
+        <v>-1.220298863905067</v>
       </c>
       <c r="H21" t="n">
-        <v>1.752630639172973</v>
+        <v>1.735655566442196</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -7548,31 +7590,31 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45705</v>
+        <v>45715</v>
       </c>
       <c r="C2" t="n">
-        <v>1341.180053710938</v>
+        <v>1363.369995117188</v>
       </c>
       <c r="D2" t="n">
-        <v>1342.890014648438</v>
+        <v>1364.27001953125</v>
       </c>
       <c r="E2" t="n">
-        <v>1334.010009765625</v>
+        <v>1351.050048828125</v>
       </c>
       <c r="F2" t="n">
-        <v>1334.010009765625</v>
+        <v>1363.619995117188</v>
       </c>
       <c r="G2" t="n">
-        <v>180964992</v>
+        <v>232120096</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.510009765625</v>
+        <v>3.0599365234375</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0049</v>
+        <v>0.0022</v>
       </c>
       <c r="J2" t="n">
-        <v>5260.723617792</v>
+        <v>7197.264707584</v>
       </c>
     </row>
     <row r="3">
@@ -7582,31 +7624,31 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45705</v>
+        <v>45715</v>
       </c>
       <c r="C3" t="n">
-        <v>1277.119995117188</v>
+        <v>1307.31005859375</v>
       </c>
       <c r="D3" t="n">
-        <v>1278.489990234375</v>
+        <v>1307.869995117188</v>
       </c>
       <c r="E3" t="n">
-        <v>1272.719970703125</v>
+        <v>1296.430053710938</v>
       </c>
       <c r="F3" t="n">
-        <v>1272.719970703125</v>
+        <v>1307.800048828125</v>
       </c>
       <c r="G3" t="n">
-        <v>739384000</v>
+        <v>846430144</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.3599853515625</v>
+        <v>4.840087890625</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0026</v>
+        <v>0.0037</v>
       </c>
       <c r="J3" t="n">
-        <v>15414.747725824</v>
+        <v>17754.172162048</v>
       </c>
     </row>
     <row r="4">
@@ -7616,31 +7658,31 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45705</v>
+        <v>45715</v>
       </c>
       <c r="C4" t="n">
-        <v>1342</v>
+        <v>1363.5</v>
       </c>
       <c r="D4" t="n">
-        <v>1342.099975585938</v>
+        <v>1364</v>
       </c>
       <c r="E4" t="n">
-        <v>1335.300048828125</v>
+        <v>1350.699951171875</v>
       </c>
       <c r="F4" t="n">
-        <v>1335.300048828125</v>
+        <v>1364</v>
       </c>
       <c r="G4" t="n">
-        <v>120605</v>
+        <v>170339</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.5</v>
+        <v>2.0999755859375</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0048</v>
+        <v>0.0015</v>
       </c>
       <c r="J4" t="n">
-        <v>16104.3862388916</v>
+        <v>23234.2396</v>
       </c>
     </row>
   </sheetData>
@@ -7701,505 +7743,505 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45705</v>
+        <v>45715</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6234939759036144</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7018072289156626</v>
+        <v>0.7530120481927711</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6265060240963856</v>
+        <v>0.6807228915662651</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4939759036144578</v>
+        <v>0.6385542168674698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4066265060240964</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5421686746987951</v>
+        <v>0.5813253012048193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45702</v>
+        <v>45714</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5933734939759037</v>
+        <v>0.4879518072289157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6867469879518072</v>
+        <v>0.7409638554216867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6084337349397591</v>
+        <v>0.6656626506024096</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4909638554216867</v>
+        <v>0.5993975903614458</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3885542168674699</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5451807228915663</v>
+        <v>0.5753012048192772</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45701</v>
+        <v>45713</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4548192771084337</v>
+        <v>0.5481927710843374</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6475903614457831</v>
+        <v>0.7469879518072289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5572289156626506</v>
+        <v>0.6656626506024096</v>
       </c>
       <c r="E4" t="n">
-        <v>0.466867469879518</v>
+        <v>0.5813253012048193</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3915662650602409</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5421686746987951</v>
+        <v>0.572289156626506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45700</v>
+        <v>45712</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4367469879518072</v>
+        <v>0.5813253012048193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6566265060240963</v>
+        <v>0.7560240963855421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5451807228915663</v>
+        <v>0.6716867469879518</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4367469879518072</v>
+        <v>0.572289156626506</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3644578313253012</v>
+        <v>0.4728915662650602</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5391566265060241</v>
+        <v>0.5662650602409639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45699</v>
+        <v>45709</v>
       </c>
       <c r="B6" t="n">
-        <v>0.463855421686747</v>
+        <v>0.5843373493975904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6415662650602409</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5391566265060241</v>
+        <v>0.6656626506024096</v>
       </c>
       <c r="E6" t="n">
-        <v>0.466867469879518</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3704819277108434</v>
+        <v>0.4427710843373494</v>
       </c>
       <c r="G6" t="n">
-        <v>0.536144578313253</v>
+        <v>0.5632530120481928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45698</v>
+        <v>45708</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4578313253012048</v>
+        <v>0.7349397590361446</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.7831325301204819</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4969879518072289</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4367469879518072</v>
+        <v>0.572289156626506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3674698795180723</v>
+        <v>0.4427710843373494</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5150602409638554</v>
+        <v>0.5602409638554217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45695</v>
+        <v>45707</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7469879518072289</v>
+        <v>0.7680722891566265</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6686746987951807</v>
+        <v>0.786144578313253</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5512048192771084</v>
+        <v>0.7018072289156626</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4789156626506024</v>
+        <v>0.5602409638554217</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3825301204819277</v>
+        <v>0.4487951807228915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.536144578313253</v>
+        <v>0.5602409638554217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45694</v>
+        <v>45706</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7891566265060241</v>
+        <v>0.6415662650602409</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6325301204819277</v>
+        <v>0.713855421686747</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5421686746987951</v>
+        <v>0.6415662650602409</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4578313253012048</v>
+        <v>0.5210843373493976</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3855421686746988</v>
+        <v>0.4246987951807229</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5331325301204819</v>
+        <v>0.5542168674698795</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45693</v>
+        <v>45705</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8162650602409639</v>
+        <v>0.6234939759036144</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6506024096385542</v>
+        <v>0.7018072289156626</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5301204819277109</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4397590361445783</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3795180722891566</v>
+        <v>0.4066265060240964</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5331325301204819</v>
+        <v>0.5421686746987951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45692</v>
+        <v>45702</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7168674698795181</v>
+        <v>0.5933734939759037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5572289156626506</v>
+        <v>0.6867469879518072</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4969879518072289</v>
+        <v>0.6084337349397591</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4156626506024096</v>
+        <v>0.4909638554216867</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3765060240963856</v>
+        <v>0.3885542168674699</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5301204819277109</v>
+        <v>0.5451807228915663</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45691</v>
+        <v>45701</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5</v>
+        <v>0.4548192771084337</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3885542168674699</v>
+        <v>0.6475903614457831</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4006024096385542</v>
+        <v>0.5572289156626506</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3644578313253012</v>
+        <v>0.466867469879518</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3313253012048193</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5090361445783133</v>
+        <v>0.5421686746987951</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45681</v>
+        <v>45700</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5301204819277109</v>
+        <v>0.4367469879518072</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4246987951807229</v>
+        <v>0.6566265060240963</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4066265060240964</v>
+        <v>0.5451807228915663</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3765060240963856</v>
+        <v>0.4367469879518072</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3524096385542169</v>
+        <v>0.3644578313253012</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5090361445783133</v>
+        <v>0.5391566265060241</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45680</v>
+        <v>45699</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4849397590361446</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3795180722891566</v>
+        <v>0.6415662650602409</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3795180722891566</v>
+        <v>0.5391566265060241</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3765060240963856</v>
+        <v>0.466867469879518</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3524096385542169</v>
+        <v>0.3704819277108434</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.536144578313253</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45679</v>
+        <v>45698</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3584337349397591</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C15" t="n">
-        <v>0.283132530120482</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3433734939759036</v>
+        <v>0.4969879518072289</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3524096385542169</v>
+        <v>0.4367469879518072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3403614457831325</v>
+        <v>0.3674698795180723</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4728915662650602</v>
+        <v>0.5150602409638554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45678</v>
+        <v>45695</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5120481927710844</v>
+        <v>0.7469879518072289</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3012048192771085</v>
+        <v>0.6686746987951807</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3765060240963856</v>
+        <v>0.5512048192771084</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3765060240963856</v>
+        <v>0.4789156626506024</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3524096385542169</v>
+        <v>0.3825301204819277</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4939759036144578</v>
+        <v>0.536144578313253</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45677</v>
+        <v>45694</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7379518072289156</v>
+        <v>0.7891566265060241</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3403614457831325</v>
+        <v>0.6325301204819277</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4006024096385542</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3915662650602409</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3644578313253012</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.5331325301204819</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45674</v>
+        <v>45693</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7289156626506024</v>
+        <v>0.8162650602409639</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3192771084337349</v>
+        <v>0.6506024096385542</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4096385542168675</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4006024096385542</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3524096385542169</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5150602409638554</v>
+        <v>0.5331325301204819</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45673</v>
+        <v>45692</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5933734939759037</v>
+        <v>0.7168674698795181</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2560240963855422</v>
+        <v>0.5572289156626506</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3855421686746988</v>
+        <v>0.4969879518072289</v>
       </c>
       <c r="E19" t="n">
+        <v>0.4156626506024096</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.3765060240963856</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.3433734939759036</v>
-      </c>
       <c r="G19" t="n">
-        <v>0.4909638554216867</v>
+        <v>0.5301204819277109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45672</v>
+        <v>45691</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5331325301204819</v>
+        <v>0.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2349397590361446</v>
+        <v>0.3885542168674699</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3674698795180723</v>
+        <v>0.4006024096385542</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3554216867469879</v>
+        <v>0.3644578313253012</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3403614457831325</v>
+        <v>0.3313253012048193</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4849397590361446</v>
+        <v>0.5090361445783133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45671</v>
+        <v>45681</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2560240963855422</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="C21" t="n">
-        <v>0.177710843373494</v>
+        <v>0.4246987951807229</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2981927710843373</v>
+        <v>0.4066265060240964</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3283132530120482</v>
+        <v>0.3765060240963856</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3283132530120482</v>
+        <v>0.3524096385542169</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4698795180722892</v>
+        <v>0.5090361445783133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45670</v>
+        <v>45680</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2740963855421687</v>
+        <v>0.4849397590361446</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1867469879518072</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3042168674698795</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3433734939759036</v>
+        <v>0.3765060240963856</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3343373493975904</v>
+        <v>0.3524096385542169</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4789156626506024</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45667</v>
+        <v>45679</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1746987951807229</v>
+        <v>0.3584337349397591</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1807228915662651</v>
+        <v>0.283132530120482</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2801204819277108</v>
+        <v>0.3433734939759036</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3192771084337349</v>
+        <v>0.3524096385542169</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3072289156626506</v>
+        <v>0.3403614457831325</v>
       </c>
       <c r="G23" t="n">
         <v>0.4728915662650602</v>
@@ -8207,574 +8249,574 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45666</v>
+        <v>45678</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2560240963855422</v>
+        <v>0.5120481927710844</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2289156626506024</v>
+        <v>0.3012048192771085</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3584337349397591</v>
+        <v>0.3765060240963856</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3614457831325301</v>
+        <v>0.3765060240963856</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3463855421686747</v>
+        <v>0.3524096385542169</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4819277108433735</v>
+        <v>0.4939759036144578</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45665</v>
+        <v>45677</v>
       </c>
       <c r="B25" t="n">
-        <v>0.213855421686747</v>
+        <v>0.7379518072289156</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2168674698795181</v>
+        <v>0.3403614457831325</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3674698795180723</v>
+        <v>0.4006024096385542</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3825301204819277</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3524096385542169</v>
+        <v>0.3644578313253012</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5030120481927711</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45664</v>
+        <v>45674</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1325301204819277</v>
+        <v>0.7289156626506024</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1596385542168675</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3162650602409638</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3463855421686747</v>
+        <v>0.4006024096385542</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3373493975903614</v>
+        <v>0.3524096385542169</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4789156626506024</v>
+        <v>0.5150602409638554</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="B27" t="n">
-        <v>0.108433734939759</v>
+        <v>0.5933734939759037</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1987951807228916</v>
+        <v>0.2560240963855422</v>
       </c>
       <c r="D27" t="n">
+        <v>0.3855421686746988</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.3765060240963856</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.3554216867469879</v>
-      </c>
       <c r="F27" t="n">
-        <v>0.3524096385542169</v>
+        <v>0.3433734939759036</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5060240963855421</v>
+        <v>0.4909638554216867</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45660</v>
+        <v>45672</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1566265060240964</v>
+        <v>0.5331325301204819</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3253012048192771</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4548192771084337</v>
+        <v>0.3674698795180723</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4186746987951807</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4066265060240964</v>
+        <v>0.3403614457831325</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5331325301204819</v>
+        <v>0.4849397590361446</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45659</v>
+        <v>45671</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3162650602409638</v>
+        <v>0.2560240963855422</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5060240963855421</v>
+        <v>0.177710843373494</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5632530120481928</v>
+        <v>0.2981927710843373</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4518072289156627</v>
+        <v>0.3283132530120482</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4457831325301205</v>
+        <v>0.3283132530120482</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5512048192771084</v>
+        <v>0.4698795180722892</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45658</v>
+        <v>45670</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2951807228915663</v>
+        <v>0.2740963855421687</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4879518072289157</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5180722891566265</v>
+        <v>0.3042168674698795</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4307228915662651</v>
+        <v>0.3433734939759036</v>
       </c>
       <c r="F30" t="n">
-        <v>0.427710843373494</v>
+        <v>0.3343373493975904</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5451807228915663</v>
+        <v>0.4789156626506024</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45657</v>
+        <v>45667</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2944444444444445</v>
+        <v>0.177710843373494</v>
       </c>
       <c r="C31" t="n">
-        <v>0.475</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4972222222222222</v>
+        <v>0.2801204819277108</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3972222222222222</v>
+        <v>0.3072289156626506</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.4728915662650602</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45656</v>
+        <v>45666</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3361111111111111</v>
+        <v>0.2530120481927711</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5305555555555556</v>
+        <v>0.3584337349397591</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4055555555555556</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.3463855421686747</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.4819277108433735</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45653</v>
+        <v>45665</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4694444444444444</v>
+        <v>0.213855421686747</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5944444444444444</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5638888888888889</v>
+        <v>0.3674698795180723</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.3825301204819277</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3524096385542169</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5030120481927711</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45652</v>
+        <v>45664</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6638888888888889</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7</v>
+        <v>0.1596385542168675</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5722222222222222</v>
+        <v>0.3162650602409638</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.3463855421686747</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4388888888888889</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="G34" t="n">
-        <v>0.525</v>
+        <v>0.4789156626506024</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45651</v>
+        <v>45663</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="D35" t="n">
-        <v>0.575</v>
+        <v>0.3765060240963856</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4361111111111111</v>
+        <v>0.3524096385542169</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.5060240963855421</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45650</v>
+        <v>45660</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4944444444444445</v>
+        <v>0.4548192771084337</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4186746987951807</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4277777777777778</v>
+        <v>0.4066265060240964</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5331325301204819</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45649</v>
+        <v>45659</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.3162650602409638</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.5632530120481928</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3944444444444444</v>
+        <v>0.4518072289156627</v>
       </c>
       <c r="F37" t="n">
-        <v>0.425</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5512048192771084</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45646</v>
+        <v>45658</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.2951807228915663</v>
       </c>
       <c r="C38" t="n">
-        <v>0.55</v>
+        <v>0.4879518072289157</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.4307228915662651</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5027777777777778</v>
+        <v>0.5451807228915663</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45645</v>
+        <v>45657</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.2944444444444445</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5027777777777778</v>
+        <v>0.475</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.4972222222222222</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4944444444444445</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45644</v>
+        <v>45656</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4138888888888889</v>
+        <v>0.3361111111111111</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0.475</v>
+        <v>0.5305555555555556</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3638888888888889</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="F40" t="n">
         <v>0.4083333333333333</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45643</v>
+        <v>45653</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.4694444444444444</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5638888888888889</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3305555555555555</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3972222222222222</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45642</v>
+        <v>45652</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.6638888888888889</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6055555555555555</v>
+        <v>0.7</v>
       </c>
       <c r="D42" t="n">
-        <v>0.425</v>
+        <v>0.5722222222222222</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3305555555555555</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.4388888888888889</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45639</v>
+        <v>45651</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2583333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4277777777777778</v>
+        <v>0.575</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3277777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3805555555555555</v>
+        <v>0.4361111111111111</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.5138888888888888</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45638</v>
+        <v>45650</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7388888888888889</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4944444444444445</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3527777777777778</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4</v>
+        <v>0.4277777777777778</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5055555555555555</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45637</v>
+        <v>45649</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6194444444444445</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7527777777777778</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="D45" t="n">
-        <v>0.475</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3388888888888889</v>
+        <v>0.3944444444444444</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3944444444444444</v>
+        <v>0.425</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45636</v>
+        <v>45646</v>
       </c>
       <c r="B46" t="n">
-        <v>0.725</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7305555555555555</v>
+        <v>0.55</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4694444444444444</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E46" t="n">
-        <v>0.325</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4055555555555556</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5027777777777778</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45635</v>
+        <v>45645</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7138888888888889</v>
+        <v>0.5027777777777778</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3305555555555555</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4277777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5055555555555555</v>
+        <v>0.4944444444444445</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45632</v>
+        <v>45644</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6972222222222222</v>
+        <v>0.4138888888888889</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6555555555555556</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3</v>
+        <v>0.3638888888888889</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3972222222222222</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="G48" t="n">
         <v>0.5</v>
@@ -8782,301 +8824,301 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45631</v>
+        <v>45643</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6472222222222223</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4111111111111111</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3305555555555555</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.4916666666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45630</v>
+        <v>45642</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.6055555555555555</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.425</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2472222222222222</v>
+        <v>0.3305555555555555</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4777777777777778</v>
+        <v>0.4916666666666666</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45629</v>
+        <v>45639</v>
       </c>
       <c r="B51" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4277777777777778</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.3277777777777778</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.3805555555555555</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.4916666666666666</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.3444444444444444</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.2444444444444444</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45628</v>
+        <v>45638</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5944444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3388888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4888888888888889</v>
+        <v>0.5055555555555555</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45625</v>
+        <v>45637</v>
       </c>
       <c r="B53" t="n">
-        <v>0.65</v>
+        <v>0.6194444444444445</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="D53" t="n">
-        <v>0.325</v>
+        <v>0.475</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.3388888888888889</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3944444444444444</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45624</v>
+        <v>45636</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="C54" t="n">
-        <v>0.425</v>
+        <v>0.7305555555555555</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4694444444444444</v>
       </c>
       <c r="E54" t="n">
-        <v>0.225</v>
+        <v>0.325</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3416666666666667</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4888888888888889</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45623</v>
+        <v>45635</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.7138888888888889</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.3305555555555555</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3416666666666667</v>
+        <v>0.4277777777777778</v>
       </c>
       <c r="G55" t="n">
-        <v>0.475</v>
+        <v>0.5055555555555555</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45622</v>
+        <v>45632</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.6972222222222222</v>
       </c>
       <c r="C56" t="n">
+        <v>0.6555555555555556</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F56" t="n">
         <v>0.3972222222222222</v>
       </c>
-      <c r="D56" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.2194444444444444</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G56" t="n">
-        <v>0.4805555555555556</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45621</v>
+        <v>45631</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3416666666666667</v>
+        <v>0.6472222222222223</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2305555555555556</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1972222222222222</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3277777777777778</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4694444444444444</v>
+        <v>0.5138888888888888</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45618</v>
+        <v>45630</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5472222222222223</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.2472222222222222</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4611111111111111</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45617</v>
+        <v>45629</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2722222222222222</v>
+        <v>0.475</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1972222222222222</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="E59" t="n">
-        <v>0.175</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4638888888888889</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45616</v>
+        <v>45628</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1722222222222222</v>
+        <v>0.3388888888888889</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="G60" t="n">
-        <v>0.45</v>
+        <v>0.4888888888888889</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45615</v>
+        <v>45625</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="C61" t="n">
-        <v>0.15</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1444444444444444</v>
+        <v>0.325</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1472222222222222</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.4916666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -9122,13 +9164,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45671</v>
+        <v>45681</v>
       </c>
       <c r="B2" t="n">
-        <v>-629.6653004799999</v>
+        <v>632.8946524160001</v>
       </c>
       <c r="C2" t="n">
-        <v>24.22115532800001</v>
+        <v>534.843686912</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -9138,13 +9180,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45672</v>
+        <v>45691</v>
       </c>
       <c r="B3" t="n">
-        <v>-406.186295296</v>
+        <v>-1462.439510016</v>
       </c>
       <c r="C3" t="n">
-        <v>33.84036556799998</v>
+        <v>-1.282408447999956</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -9154,13 +9196,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45673</v>
+        <v>45692</v>
       </c>
       <c r="B4" t="n">
-        <v>-3106.9683712</v>
+        <v>-955.2848486400001</v>
       </c>
       <c r="C4" t="n">
-        <v>-515.2814202879999</v>
+        <v>-949.0120048639999</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -9170,13 +9212,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45674</v>
+        <v>45693</v>
       </c>
       <c r="B5" t="n">
-        <v>-474.7240407040001</v>
+        <v>-365.8041262080001</v>
       </c>
       <c r="C5" t="n">
-        <v>222.619582464</v>
+        <v>319.562121216</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -9186,13 +9228,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45677</v>
+        <v>45694</v>
       </c>
       <c r="B6" t="n">
-        <v>-247.6244992000001</v>
+        <v>-344.882282496</v>
       </c>
       <c r="C6" t="n">
-        <v>159.472910336</v>
+        <v>-180.6807859199999</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -9202,13 +9244,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45678</v>
+        <v>45695</v>
       </c>
       <c r="B7" t="n">
-        <v>-165.697421312</v>
+        <v>-1110.255599616</v>
       </c>
       <c r="C7" t="n">
-        <v>272.07458816</v>
+        <v>-80.62376345600001</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -9218,13 +9260,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45679</v>
+        <v>45698</v>
       </c>
       <c r="B8" t="n">
-        <v>-248.8741396479999</v>
+        <v>-441.9654778879999</v>
       </c>
       <c r="C8" t="n">
-        <v>378.5987194879999</v>
+        <v>-183.372742656</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -9234,13 +9276,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45680</v>
+        <v>45699</v>
       </c>
       <c r="B9" t="n">
-        <v>147.841089536</v>
+        <v>-581.1926466560001</v>
       </c>
       <c r="C9" t="n">
-        <v>470.5091584</v>
+        <v>195.621126144</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -9250,13 +9292,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45681</v>
+        <v>45700</v>
       </c>
       <c r="B10" t="n">
-        <v>632.8946524160001</v>
+        <v>-408.8899174400001</v>
       </c>
       <c r="C10" t="n">
-        <v>534.843686912</v>
+        <v>13.06981171199999</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -9266,13 +9308,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45691</v>
+        <v>45701</v>
       </c>
       <c r="B11" t="n">
-        <v>-1462.439510016</v>
+        <v>-232.6934323200001</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.282408447999956</v>
+        <v>0.1551564800000165</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -9282,13 +9324,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45692</v>
+        <v>45702</v>
       </c>
       <c r="B12" t="n">
-        <v>-955.2848486400001</v>
+        <v>-179.3008599039999</v>
       </c>
       <c r="C12" t="n">
-        <v>-949.0120048639999</v>
+        <v>121.201524736</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -9298,13 +9340,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45693</v>
+        <v>45705</v>
       </c>
       <c r="B13" t="n">
-        <v>-365.8041262080001</v>
+        <v>-600.2461900799999</v>
       </c>
       <c r="C13" t="n">
-        <v>319.562121216</v>
+        <v>200.804319232</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -9314,13 +9356,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45694</v>
+        <v>45706</v>
       </c>
       <c r="B14" t="n">
-        <v>-344.882282496</v>
+        <v>-142.062125056</v>
       </c>
       <c r="C14" t="n">
-        <v>-180.6807859199999</v>
+        <v>49.12168960000002</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -9330,13 +9372,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45695</v>
+        <v>45707</v>
       </c>
       <c r="B15" t="n">
-        <v>-1110.255599616</v>
+        <v>353.6563732479999</v>
       </c>
       <c r="C15" t="n">
-        <v>-80.62376345600001</v>
+        <v>1.443627008000021</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -9346,13 +9388,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45698</v>
+        <v>45708</v>
       </c>
       <c r="B16" t="n">
-        <v>-441.9654778879999</v>
+        <v>-390.3062015999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-183.372742656</v>
+        <v>205.3844500480001</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -9362,13 +9404,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45699</v>
+        <v>45709</v>
       </c>
       <c r="B17" t="n">
-        <v>-581.1926466560001</v>
+        <v>-192.393904128</v>
       </c>
       <c r="C17" t="n">
-        <v>195.621126144</v>
+        <v>-36.99946291199996</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -9378,13 +9420,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45700</v>
+        <v>45712</v>
       </c>
       <c r="B18" t="n">
-        <v>-408.8899174400001</v>
+        <v>-258.8858122239999</v>
       </c>
       <c r="C18" t="n">
-        <v>13.06981171199999</v>
+        <v>-281.043730432</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -9394,13 +9436,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45701</v>
+        <v>45713</v>
       </c>
       <c r="B19" t="n">
-        <v>-232.6934323200001</v>
+        <v>-339.5979837439997</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1551564800000165</v>
+        <v>-173.361463296</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -9410,13 +9452,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45702</v>
+        <v>45714</v>
       </c>
       <c r="B20" t="n">
-        <v>-179.3008599039999</v>
+        <v>-295.475740672</v>
       </c>
       <c r="C20" t="n">
-        <v>121.201524736</v>
+        <v>-300.112871424</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -9426,13 +9468,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45705</v>
+        <v>45715</v>
       </c>
       <c r="B21" t="n">
-        <v>-600.2461900799999</v>
+        <v>-639.0200401919999</v>
       </c>
       <c r="C21" t="n">
-        <v>200.804319232</v>
+        <v>201.503113216</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
